--- a/app/config/tables/pediatria/forms/triagem/triagem.xlsx
+++ b/app/config/tables/pediatria/forms/triagem/triagem.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EED56D-173F-4E8B-8193-C425DE3148E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7FB940-CF68-42D0-8ACA-080457517117}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="858">
   <si>
     <t>setting_name</t>
   </si>
@@ -2585,6 +2585,27 @@
   </si>
   <si>
     <t>pediatria</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Assistante</t>
+  </si>
+  <si>
+    <t>Escolha estudo</t>
+  </si>
+  <si>
+    <t>Descricao aonde a crianca mora</t>
+  </si>
+  <si>
+    <t>Vem alguem do projeto a sua tabanca</t>
+  </si>
+  <si>
+    <t>Regiao</t>
+  </si>
+  <si>
+    <t>Nome da tabanca</t>
   </si>
 </sst>
 </file>
@@ -3265,9 +3286,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
   <dimension ref="A1:Q453"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,6 +3405,9 @@
       <c r="G4" t="s">
         <v>849</v>
       </c>
+      <c r="H4" t="s">
+        <v>852</v>
+      </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -3587,6 +3611,9 @@
       <c r="G20" t="s">
         <v>457</v>
       </c>
+      <c r="H20" t="s">
+        <v>853</v>
+      </c>
       <c r="Q20" t="s">
         <v>630</v>
       </c>
@@ -3659,10 +3686,13 @@
     </row>
     <row r="27" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
         <v>178</v>
+      </c>
+      <c r="N27" t="s">
+        <v>851</v>
       </c>
       <c r="P27" t="s">
         <v>395</v>
@@ -3734,10 +3764,13 @@
     </row>
     <row r="33" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
         <v>179</v>
+      </c>
+      <c r="N33" t="s">
+        <v>851</v>
       </c>
       <c r="P33" t="s">
         <v>395</v>
@@ -3803,10 +3836,13 @@
     </row>
     <row r="39" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
         <v>180</v>
+      </c>
+      <c r="N39" t="s">
+        <v>851</v>
       </c>
       <c r="P39" t="s">
         <v>395</v>
@@ -4257,6 +4293,9 @@
       <c r="G79" t="s">
         <v>824</v>
       </c>
+      <c r="H79" t="s">
+        <v>854</v>
+      </c>
       <c r="P79" t="s">
         <v>395</v>
       </c>
@@ -4364,6 +4403,9 @@
       <c r="G89" t="s">
         <v>824</v>
       </c>
+      <c r="H89" t="s">
+        <v>854</v>
+      </c>
       <c r="P89" t="s">
         <v>395</v>
       </c>
@@ -4410,6 +4452,9 @@
       <c r="G94" t="s">
         <v>825</v>
       </c>
+      <c r="H94" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
@@ -4435,6 +4480,9 @@
       <c r="G96" t="s">
         <v>472</v>
       </c>
+      <c r="H96" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
@@ -4462,6 +4510,9 @@
       </c>
       <c r="G98" t="s">
         <v>470</v>
+      </c>
+      <c r="H98" t="s">
+        <v>857</v>
       </c>
       <c r="P98" t="s">
         <v>395</v>
@@ -9270,7 +9321,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L334:P334 I334:J334">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12840,8 +12891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
   <dimension ref="A1:XFD177"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46381,7 +46432,7 @@
         <v>179</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C70" s="15" t="b">
         <v>1</v>
@@ -46403,7 +46454,7 @@
         <v>180</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C72" s="15" t="b">
         <v>1</v>
@@ -46425,7 +46476,7 @@
         <v>178</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C74" s="15" t="b">
         <v>1</v>

--- a/app/config/tables/pediatria/forms/triagem/triagem.xlsx
+++ b/app/config/tables/pediatria/forms/triagem/triagem.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7FB940-CF68-42D0-8ACA-080457517117}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B38A64F-9765-4FF2-93F5-D3325B6E27D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="881">
   <si>
     <t>setting_name</t>
   </si>
@@ -739,9 +739,6 @@
     <t>Temperatura</t>
   </si>
   <si>
-    <t>A criança nasceu no HNSM ?</t>
-  </si>
-  <si>
     <t>Número de estudo</t>
   </si>
   <si>
@@ -757,9 +754,6 @@
     <t>Outra</t>
   </si>
   <si>
-    <t>Por quantos anos ?</t>
-  </si>
-  <si>
     <t>Nome do pai</t>
   </si>
   <si>
@@ -823,9 +817,6 @@
     <t>Número do telefone da mãe</t>
   </si>
   <si>
-    <t>A mãe estudou ?</t>
-  </si>
-  <si>
     <t>Medição horizontal</t>
   </si>
   <si>
@@ -1069,9 +1060,6 @@
     <t>Data de PCV13-3</t>
   </si>
   <si>
-    <t>Date of VAS (Sarampo 1)</t>
-  </si>
-  <si>
     <t>Data de VAS (Sarampo 1)</t>
   </si>
   <si>
@@ -1285,9 +1273,6 @@
     <t>Does the child live in the project area?</t>
   </si>
   <si>
-    <t>A criança vive na area de estudo de PSB ?</t>
-  </si>
-  <si>
     <t>VN - Cartão visto, mas sem vacinas registadas</t>
   </si>
   <si>
@@ -1405,9 +1390,6 @@
     <t>countSelected(data('stu'))==0</t>
   </si>
   <si>
-    <t>Choose studies</t>
-  </si>
-  <si>
     <t>(data('stu'))[0]</t>
   </si>
   <si>
@@ -1897,15 +1879,9 @@
     <t>NTN</t>
   </si>
   <si>
-    <t>Data de VAA (Fevre amarelio)</t>
-  </si>
-  <si>
     <t>Date of VAA (Yellow fever)</t>
   </si>
   <si>
-    <t>VAA (Fevre amarelio)</t>
-  </si>
-  <si>
     <t>1966-06-06T00:00:00.000000000</t>
   </si>
   <si>
@@ -2425,12 +2401,6 @@
     <t>dbf</t>
   </si>
   <si>
-    <t>Did the child take part in the April 2018 campaign?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A criança tinha participado na campanha de vacinação no mês de Abril de 2018 ? </t>
-  </si>
-  <si>
     <t>data('campest') != null</t>
   </si>
   <si>
@@ -2593,19 +2563,118 @@
     <t>Assistante</t>
   </si>
   <si>
-    <t>Escolha estudo</t>
-  </si>
-  <si>
-    <t>Descricao aonde a crianca mora</t>
-  </si>
-  <si>
-    <t>Vem alguem do projeto a sua tabanca</t>
-  </si>
-  <si>
-    <t>Regiao</t>
-  </si>
-  <si>
     <t>Nome da tabanca</t>
+  </si>
+  <si>
+    <t>Dia da inscrição</t>
+  </si>
+  <si>
+    <t>VAS (Sarampo 1)</t>
+  </si>
+  <si>
+    <t>Escolha estudoa(s)</t>
+  </si>
+  <si>
+    <t>Choose studie(s)</t>
+  </si>
+  <si>
+    <t>Descrição de onde a criança vive</t>
+  </si>
+  <si>
+    <t>A criança vive na area de estudo de PSB?</t>
+  </si>
+  <si>
+    <t>As pessoas do projeto vêm pela aldeia?</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Outra:</t>
+  </si>
+  <si>
+    <t>A mãe estudou?</t>
+  </si>
+  <si>
+    <t>Por quantos anos?</t>
+  </si>
+  <si>
+    <t>A criança nasceu no HNSM?</t>
+  </si>
+  <si>
+    <t>Did the child take part in the May 2019 campaign?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A criança tinha participado na campanha de vacinação no mês de Maio de 2019 ? </t>
+  </si>
+  <si>
+    <t>NTN - Não tem cartão e não tem vacinas</t>
+  </si>
+  <si>
+    <t>NTS - Não tem cartão, mas tem vacinas</t>
+  </si>
+  <si>
+    <t>Data desconhecida</t>
+  </si>
+  <si>
+    <t>Status desconhecido</t>
+  </si>
+  <si>
+    <t>Não sabe o número</t>
+  </si>
+  <si>
+    <t>Nenhum diagnóstico</t>
+  </si>
+  <si>
+    <t>Apenas consulta</t>
+  </si>
+  <si>
+    <t>Admitido para observação</t>
+  </si>
+  <si>
+    <t>Incrustado</t>
+  </si>
+  <si>
+    <t>Ainda admitido</t>
+  </si>
+  <si>
+    <t>Viveu descarregado</t>
+  </si>
+  <si>
+    <t>Morreu durante a admissão</t>
+  </si>
+  <si>
+    <t>Deixou</t>
+  </si>
+  <si>
+    <t>Cama desconhecida</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Não realizado</t>
+  </si>
+  <si>
+    <t>Tempo desconhecido</t>
+  </si>
+  <si>
+    <t>VAA (Febre amarela)</t>
+  </si>
+  <si>
+    <t>VAS (Measles 1)</t>
+  </si>
+  <si>
+    <t>Date of VAS (Measles 1)</t>
+  </si>
+  <si>
+    <t>Data de VAA (Febre amarela)</t>
+  </si>
+  <si>
+    <t>VAA (Yellow fever)</t>
   </si>
 </sst>
 </file>
@@ -2656,7 +2725,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2714,12 +2783,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2788,7 +2851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2813,19 +2876,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="13" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B24E2DBD-C98B-43BE-8700-82C21F1CBFF5}"/>
@@ -3148,7 +3210,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3157,7 +3219,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3200,7 +3262,7 @@
         <v>222</v>
       </c>
       <c r="E1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F1" t="s">
         <v>216</v>
@@ -3230,7 +3292,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3263,7 +3325,7 @@
         <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3286,9 +3348,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
   <dimension ref="A1:Q453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H381" sqref="H381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,7 +3376,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -3344,22 +3406,22 @@
         <v>122</v>
       </c>
       <c r="K1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L1" t="s">
         <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q1" t="s">
         <v>32</v>
@@ -3378,10 +3440,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="G3" t="s">
-        <v>680</v>
+        <v>672</v>
+      </c>
+      <c r="H3" t="s">
+        <v>844</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -3400,13 +3465,13 @@
         <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="G4" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="H4" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -3436,10 +3501,10 @@
         <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3475,10 +3540,10 @@
     </row>
     <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F10" t="s">
         <v>134</v>
@@ -3489,10 +3554,10 @@
         <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="Q11" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3503,7 +3568,7 @@
         <v>135</v>
       </c>
       <c r="H12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3520,7 +3585,7 @@
         <v>230</v>
       </c>
       <c r="P13" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3543,10 +3608,10 @@
         <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P14" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3554,16 +3619,16 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="G15" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="H15" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="P15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3580,7 +3645,7 @@
         <v>232</v>
       </c>
       <c r="P16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3600,22 +3665,22 @@
     </row>
     <row r="20" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E20" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F20" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G20" t="s">
-        <v>457</v>
+        <v>847</v>
       </c>
       <c r="H20" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="Q20" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3625,13 +3690,13 @@
     </row>
     <row r="22" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C22" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="Q22" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3644,10 +3709,10 @@
         <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="Q24" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3655,13 +3720,13 @@
         <v>153</v>
       </c>
       <c r="F25" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="L25" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="Q25" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3669,19 +3734,19 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G26" t="s">
         <v>111</v>
       </c>
       <c r="H26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3692,10 +3757,10 @@
         <v>178</v>
       </c>
       <c r="N27" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="P27" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q27" t="s">
         <v>111</v>
@@ -3709,10 +3774,10 @@
         <v>110</v>
       </c>
       <c r="L28" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="Q28" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="29" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3725,10 +3790,10 @@
         <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="Q30" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3736,13 +3801,13 @@
         <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="L31" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="Q31" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="32" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3750,13 +3815,13 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G32" t="s">
         <v>111</v>
       </c>
       <c r="H32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -3770,10 +3835,10 @@
         <v>179</v>
       </c>
       <c r="N33" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="P33" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3784,7 +3849,7 @@
         <v>112</v>
       </c>
       <c r="L34" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3797,10 +3862,10 @@
         <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Q36" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3808,13 +3873,13 @@
         <v>153</v>
       </c>
       <c r="F37" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="L37" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="Q37" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3822,13 +3887,13 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="G38" t="s">
         <v>111</v>
       </c>
       <c r="H38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
@@ -3842,10 +3907,10 @@
         <v>180</v>
       </c>
       <c r="N39" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="P39" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3856,7 +3921,7 @@
         <v>113</v>
       </c>
       <c r="L40" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3891,18 +3956,18 @@
         <v>72</v>
       </c>
       <c r="P44" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E45" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F45" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3910,10 +3975,10 @@
         <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="Q46" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -3950,13 +4015,13 @@
         <v>79</v>
       </c>
       <c r="F51" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G51" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H51" t="s">
-        <v>417</v>
+        <v>849</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
@@ -3964,10 +4029,10 @@
         <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q52" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3975,19 +4040,19 @@
         <v>91</v>
       </c>
       <c r="E53" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F53" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G53" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H53" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q53" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
@@ -3995,10 +4060,10 @@
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="Q54" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
@@ -4006,19 +4071,19 @@
         <v>91</v>
       </c>
       <c r="E55" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F55" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G55" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H55" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P55" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
@@ -4029,7 +4094,7 @@
         <v>70</v>
       </c>
       <c r="L56" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
@@ -4042,10 +4107,10 @@
         <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q58" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4053,19 +4118,19 @@
         <v>91</v>
       </c>
       <c r="E59" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F59" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G59" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H59" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P59" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
@@ -4076,7 +4141,7 @@
         <v>70</v>
       </c>
       <c r="L60" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
@@ -4089,10 +4154,10 @@
         <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="Q62" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
@@ -4100,19 +4165,19 @@
         <v>91</v>
       </c>
       <c r="E63" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F63" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G63" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H63" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P63" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4123,7 +4188,7 @@
         <v>70</v>
       </c>
       <c r="L64" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.25">
@@ -4136,10 +4201,10 @@
         <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="Q66" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.25">
@@ -4147,19 +4212,19 @@
         <v>91</v>
       </c>
       <c r="E67" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F67" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G67" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H67" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P67" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.25">
@@ -4170,7 +4235,7 @@
         <v>70</v>
       </c>
       <c r="L68" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.25">
@@ -4183,10 +4248,10 @@
         <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q70" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
@@ -4194,19 +4259,19 @@
         <v>91</v>
       </c>
       <c r="E71" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F71" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G71" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H71" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P71" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.25">
@@ -4217,7 +4282,7 @@
         <v>70</v>
       </c>
       <c r="L72" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
@@ -4230,10 +4295,10 @@
         <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="Q74" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
@@ -4241,19 +4306,19 @@
         <v>91</v>
       </c>
       <c r="E75" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F75" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G75" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H75" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P75" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
@@ -4264,7 +4329,7 @@
         <v>70</v>
       </c>
       <c r="L76" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
@@ -4277,10 +4342,10 @@
         <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="Q78" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
@@ -4288,16 +4353,16 @@
         <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G79" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="H79" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="P79" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
@@ -4308,7 +4373,7 @@
         <v>70</v>
       </c>
       <c r="L80" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
@@ -4321,10 +4386,10 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="Q82" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
@@ -4332,27 +4397,27 @@
         <v>21</v>
       </c>
       <c r="F83" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G83" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H83" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P83" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E84" t="s">
         <v>146</v>
       </c>
       <c r="F84" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
@@ -4360,10 +4425,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="Q85" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
@@ -4371,7 +4436,7 @@
         <v>153</v>
       </c>
       <c r="F86" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L86">
         <v>99999</v>
@@ -4387,10 +4452,10 @@
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="Q88" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
@@ -4398,19 +4463,19 @@
         <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G89" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="H89" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="P89" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q89" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
@@ -4433,10 +4498,10 @@
         <v>86</v>
       </c>
       <c r="C93" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="Q93" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
@@ -4447,24 +4512,24 @@
         <v>79</v>
       </c>
       <c r="F94" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G94" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="H94" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C95" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="Q95" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
@@ -4472,16 +4537,16 @@
         <v>91</v>
       </c>
       <c r="E96" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F96" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G96" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H96" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
@@ -4489,16 +4554,16 @@
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G97" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H97" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P97" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
@@ -4506,16 +4571,16 @@
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G98" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H98" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="P98" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
@@ -4549,10 +4614,10 @@
         <v>34</v>
       </c>
       <c r="H103" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P103" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.25">
@@ -4566,10 +4631,10 @@
         <v>74</v>
       </c>
       <c r="H104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P104" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
@@ -4587,16 +4652,16 @@
         <v>91</v>
       </c>
       <c r="E107" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F107" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="G107" t="s">
         <v>76</v>
       </c>
       <c r="H107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.25">
@@ -4604,10 +4669,10 @@
         <v>86</v>
       </c>
       <c r="C108" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="Q108" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
@@ -4615,19 +4680,19 @@
         <v>91</v>
       </c>
       <c r="E109" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F109" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G109" t="s">
         <v>148</v>
       </c>
       <c r="H109" t="s">
-        <v>240</v>
+        <v>852</v>
       </c>
       <c r="P109" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.25">
@@ -4640,10 +4705,10 @@
         <v>86</v>
       </c>
       <c r="C111" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="Q111" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
@@ -4654,15 +4719,15 @@
         <v>75</v>
       </c>
       <c r="L112" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="Q113" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.25">
@@ -4673,7 +4738,7 @@
         <v>75</v>
       </c>
       <c r="L114" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
@@ -4695,7 +4760,7 @@
         <v>215</v>
       </c>
       <c r="H116" t="s">
-        <v>263</v>
+        <v>853</v>
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
@@ -4706,7 +4771,7 @@
         <v>150</v>
       </c>
       <c r="Q117" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.25">
@@ -4720,10 +4785,10 @@
         <v>151</v>
       </c>
       <c r="H118" t="s">
-        <v>241</v>
+        <v>854</v>
       </c>
       <c r="P118" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.25">
@@ -4745,7 +4810,7 @@
         <v>214</v>
       </c>
       <c r="H120" t="s">
-        <v>235</v>
+        <v>855</v>
       </c>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
@@ -4753,7 +4818,7 @@
         <v>86</v>
       </c>
       <c r="C121" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.25">
@@ -4761,10 +4826,10 @@
         <v>153</v>
       </c>
       <c r="F122" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="L122" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.25">
@@ -4772,10 +4837,10 @@
         <v>153</v>
       </c>
       <c r="F123" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="L123" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
@@ -4804,10 +4869,10 @@
         <v>37</v>
       </c>
       <c r="H127" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P127" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="2:17" x14ac:dyDescent="0.25">
@@ -4824,7 +4889,7 @@
         <v>109</v>
       </c>
       <c r="H128" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.25">
@@ -4842,36 +4907,36 @@
         <v>21</v>
       </c>
       <c r="F131" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="G131" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H131" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="J131" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K131" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P131" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E132" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F132" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="I132" s="3"/>
     </row>
@@ -4880,11 +4945,11 @@
         <v>86</v>
       </c>
       <c r="C133" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="I133" s="3"/>
       <c r="Q133" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
@@ -4896,16 +4961,16 @@
       </c>
       <c r="I134" s="3"/>
       <c r="L134" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I135" s="3"/>
       <c r="Q135" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.25">
@@ -4917,7 +4982,7 @@
       </c>
       <c r="I136" s="3"/>
       <c r="L136" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.25">
@@ -4931,36 +4996,36 @@
         <v>21</v>
       </c>
       <c r="F138" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H138" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="J138" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K138" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P138" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E139" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F139" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="I139" s="3"/>
     </row>
@@ -4969,11 +5034,11 @@
         <v>86</v>
       </c>
       <c r="C140" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="I140" s="3"/>
       <c r="Q140" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
@@ -4985,16 +5050,16 @@
       </c>
       <c r="I141" s="3"/>
       <c r="L141" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I142" s="3"/>
       <c r="Q142" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.25">
@@ -5006,7 +5071,7 @@
       </c>
       <c r="I143" s="3"/>
       <c r="L143" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.25">
@@ -5020,10 +5085,10 @@
         <v>86</v>
       </c>
       <c r="C145" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q145" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.25">
@@ -5031,36 +5096,36 @@
         <v>21</v>
       </c>
       <c r="F146" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="G146" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H146" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="J146" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K146" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P146" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E147" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="I147" s="3"/>
     </row>
@@ -5069,11 +5134,11 @@
         <v>86</v>
       </c>
       <c r="C148" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="I148" s="3"/>
       <c r="Q148" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.25">
@@ -5081,20 +5146,20 @@
         <v>153</v>
       </c>
       <c r="F149" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I149" s="3"/>
       <c r="L149" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I150" s="3"/>
       <c r="Q150" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.25">
@@ -5102,11 +5167,11 @@
         <v>153</v>
       </c>
       <c r="F151" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I151" s="3"/>
       <c r="L151" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="152" spans="2:17" x14ac:dyDescent="0.25">
@@ -5145,7 +5210,7 @@
         <v>233</v>
       </c>
       <c r="P156" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="157" spans="2:17" x14ac:dyDescent="0.25">
@@ -5162,7 +5227,7 @@
         <v>234</v>
       </c>
       <c r="P157" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="158" spans="2:17" x14ac:dyDescent="0.25">
@@ -5172,13 +5237,13 @@
     </row>
     <row r="159" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C159" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q159" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="160" spans="2:17" x14ac:dyDescent="0.25">
@@ -5205,7 +5270,7 @@
         <v>118</v>
       </c>
       <c r="H161" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="162" spans="2:17" x14ac:dyDescent="0.25">
@@ -5222,7 +5287,7 @@
         <v>95</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -5238,7 +5303,7 @@
         <v>86</v>
       </c>
       <c r="C163" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -5253,7 +5318,7 @@
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="164" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5267,7 +5332,7 @@
         <v>98</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -5277,7 +5342,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="165" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5291,7 +5356,7 @@
         <v>99</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -5301,7 +5366,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
       <c r="P165" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="166" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5325,7 +5390,7 @@
         <v>86</v>
       </c>
       <c r="C167" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -5344,7 +5409,7 @@
         <v>153</v>
       </c>
       <c r="F168" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
@@ -5352,7 +5417,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
@@ -5372,7 +5437,7 @@
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
@@ -5413,10 +5478,10 @@
     </row>
     <row r="172" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C172" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -5430,7 +5495,7 @@
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="173" spans="2:17" x14ac:dyDescent="0.25">
@@ -5458,7 +5523,7 @@
         <v>119</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -5480,10 +5545,10 @@
         <v>94</v>
       </c>
       <c r="G175" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H175" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -5499,7 +5564,7 @@
         <v>86</v>
       </c>
       <c r="C176" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -5514,7 +5579,7 @@
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
@@ -5528,7 +5593,7 @@
         <v>98</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -5538,7 +5603,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
       <c r="P177" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
@@ -5552,7 +5617,7 @@
         <v>99</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -5562,7 +5627,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
       <c r="P178" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
@@ -5586,7 +5651,7 @@
         <v>86</v>
       </c>
       <c r="C180" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -5605,7 +5670,7 @@
         <v>153</v>
       </c>
       <c r="F181" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -5613,7 +5678,7 @@
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
@@ -5633,7 +5698,7 @@
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
@@ -5663,7 +5728,7 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
         <v>19</v>
@@ -5677,13 +5742,13 @@
         <v>80</v>
       </c>
       <c r="F186" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="G186" t="s">
         <v>85</v>
       </c>
       <c r="H186" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
@@ -5691,10 +5756,10 @@
         <v>86</v>
       </c>
       <c r="C187" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="Q187" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
@@ -5713,7 +5778,7 @@
         <v>153</v>
       </c>
       <c r="F189" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -5721,7 +5786,7 @@
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
@@ -5738,10 +5803,10 @@
         <v>86</v>
       </c>
       <c r="C191" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="Q191" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
@@ -5752,13 +5817,13 @@
         <v>79</v>
       </c>
       <c r="F192" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="G192" t="s">
         <v>152</v>
       </c>
       <c r="H192" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="193" spans="2:17" x14ac:dyDescent="0.25">
@@ -5776,10 +5841,10 @@
         <v>86</v>
       </c>
       <c r="C195" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="Q195" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="196" spans="2:17" x14ac:dyDescent="0.25">
@@ -5792,10 +5857,10 @@
         <v>153</v>
       </c>
       <c r="F197" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="L197" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="198" spans="2:17" x14ac:dyDescent="0.25">
@@ -5803,22 +5868,22 @@
         <v>133</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
@@ -5829,7 +5894,7 @@
     </row>
     <row r="199" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E199" t="s">
         <v>181</v>
@@ -5854,7 +5919,7 @@
         <v>86</v>
       </c>
       <c r="C200" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -5868,7 +5933,7 @@
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
       <c r="Q200" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="201" spans="2:17" x14ac:dyDescent="0.25">
@@ -5884,7 +5949,7 @@
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
@@ -5894,7 +5959,7 @@
     </row>
     <row r="202" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -5908,7 +5973,7 @@
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="203" spans="2:17" x14ac:dyDescent="0.25">
@@ -5924,7 +5989,7 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
@@ -5954,22 +6019,22 @@
         <v>133</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
@@ -5980,10 +6045,10 @@
     </row>
     <row r="206" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E206" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F206" t="s">
         <v>188</v>
@@ -5994,10 +6059,10 @@
         <v>86</v>
       </c>
       <c r="C207" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q207" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="208" spans="2:17" x14ac:dyDescent="0.25">
@@ -6005,14 +6070,14 @@
         <v>153</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
@@ -6041,7 +6106,7 @@
         <v>86</v>
       </c>
       <c r="C210" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
@@ -6054,7 +6119,7 @@
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
       <c r="Q210" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="211" spans="2:17" x14ac:dyDescent="0.25">
@@ -6069,7 +6134,7 @@
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
@@ -6079,7 +6144,7 @@
     </row>
     <row r="212" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
@@ -6092,7 +6157,7 @@
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
       <c r="Q212" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="213" spans="2:17" x14ac:dyDescent="0.25">
@@ -6107,7 +6172,7 @@
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
@@ -6158,22 +6223,22 @@
         <v>133</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
@@ -6184,7 +6249,7 @@
     </row>
     <row r="218" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D218" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E218" t="s">
         <v>181</v>
@@ -6209,7 +6274,7 @@
         <v>86</v>
       </c>
       <c r="C219" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -6223,7 +6288,7 @@
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
       <c r="Q219" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="220" spans="2:17" x14ac:dyDescent="0.25">
@@ -6239,7 +6304,7 @@
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
@@ -6249,7 +6314,7 @@
     </row>
     <row r="221" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -6263,7 +6328,7 @@
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
       <c r="Q221" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="222" spans="2:17" x14ac:dyDescent="0.25">
@@ -6279,7 +6344,7 @@
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
@@ -6309,22 +6374,22 @@
         <v>133</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
@@ -6335,10 +6400,10 @@
     </row>
     <row r="225" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D225" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E225" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>189</v>
@@ -6349,10 +6414,10 @@
         <v>86</v>
       </c>
       <c r="C226" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q226" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="227" spans="2:17" x14ac:dyDescent="0.25">
@@ -6360,14 +6425,14 @@
         <v>153</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
@@ -6396,7 +6461,7 @@
         <v>86</v>
       </c>
       <c r="C229" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -6409,7 +6474,7 @@
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
       <c r="Q229" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="230" spans="2:17" x14ac:dyDescent="0.25">
@@ -6424,7 +6489,7 @@
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
@@ -6434,7 +6499,7 @@
     </row>
     <row r="231" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -6447,7 +6512,7 @@
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
       <c r="Q231" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="232" spans="2:17" x14ac:dyDescent="0.25">
@@ -6462,7 +6527,7 @@
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
       <c r="L232" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
@@ -6492,22 +6557,22 @@
         <v>133</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
@@ -6517,10 +6582,10 @@
     </row>
     <row r="235" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E235" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>192</v>
@@ -6531,10 +6596,10 @@
         <v>86</v>
       </c>
       <c r="C236" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q236" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="237" spans="2:17" x14ac:dyDescent="0.25">
@@ -6542,14 +6607,14 @@
         <v>153</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
@@ -6578,7 +6643,7 @@
         <v>86</v>
       </c>
       <c r="C239" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -6591,7 +6656,7 @@
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
       <c r="Q239" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="240" spans="2:17" x14ac:dyDescent="0.25">
@@ -6606,7 +6671,7 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
       <c r="L240" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
@@ -6616,7 +6681,7 @@
     </row>
     <row r="241" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -6629,7 +6694,7 @@
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
       <c r="Q241" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="242" spans="2:17" x14ac:dyDescent="0.25">
@@ -6644,7 +6709,7 @@
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
@@ -6674,22 +6739,22 @@
         <v>133</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
@@ -6699,10 +6764,10 @@
     </row>
     <row r="245" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E245" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>195</v>
@@ -6713,10 +6778,10 @@
         <v>86</v>
       </c>
       <c r="C246" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q246" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="247" spans="2:17" x14ac:dyDescent="0.25">
@@ -6724,14 +6789,14 @@
         <v>153</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
@@ -6760,7 +6825,7 @@
         <v>86</v>
       </c>
       <c r="C249" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
@@ -6773,7 +6838,7 @@
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
       <c r="Q249" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="250" spans="2:17" x14ac:dyDescent="0.25">
@@ -6788,7 +6853,7 @@
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
       <c r="L250" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
@@ -6798,7 +6863,7 @@
     </row>
     <row r="251" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
@@ -6811,7 +6876,7 @@
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="252" spans="2:17" x14ac:dyDescent="0.25">
@@ -6826,7 +6891,7 @@
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
       <c r="L252" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
@@ -6866,22 +6931,22 @@
         <v>133</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>127</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L256" s="1"/>
       <c r="M256" s="1"/>
@@ -6892,7 +6957,7 @@
     </row>
     <row r="257" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E257" t="s">
         <v>181</v>
@@ -6917,7 +6982,7 @@
         <v>86</v>
       </c>
       <c r="C258" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -6931,7 +6996,7 @@
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
       <c r="Q258" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="259" spans="2:17" x14ac:dyDescent="0.25">
@@ -6947,7 +7012,7 @@
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
       <c r="L259" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
@@ -6957,7 +7022,7 @@
     </row>
     <row r="260" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -6971,7 +7036,7 @@
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
       <c r="Q260" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="261" spans="2:17" x14ac:dyDescent="0.25">
@@ -6987,7 +7052,7 @@
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
       <c r="L261" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
@@ -7017,22 +7082,22 @@
         <v>133</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
@@ -7043,10 +7108,10 @@
     </row>
     <row r="264" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E264" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>190</v>
@@ -7057,10 +7122,10 @@
         <v>86</v>
       </c>
       <c r="C265" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q265" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="266" spans="2:17" x14ac:dyDescent="0.25">
@@ -7068,14 +7133,14 @@
         <v>153</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
       <c r="L266" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
@@ -7104,7 +7169,7 @@
         <v>86</v>
       </c>
       <c r="C268" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
@@ -7117,7 +7182,7 @@
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
       <c r="Q268" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="269" spans="2:17" x14ac:dyDescent="0.25">
@@ -7132,7 +7197,7 @@
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
       <c r="L269" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
@@ -7142,7 +7207,7 @@
     </row>
     <row r="270" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -7155,7 +7220,7 @@
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
       <c r="Q270" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="271" spans="2:17" x14ac:dyDescent="0.25">
@@ -7170,7 +7235,7 @@
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
       <c r="L271" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
@@ -7200,22 +7265,22 @@
         <v>133</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
@@ -7225,10 +7290,10 @@
     </row>
     <row r="274" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E274" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>193</v>
@@ -7239,10 +7304,10 @@
         <v>86</v>
       </c>
       <c r="C275" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q275" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="276" spans="2:17" x14ac:dyDescent="0.25">
@@ -7250,14 +7315,14 @@
         <v>153</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
       <c r="L276" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
@@ -7286,7 +7351,7 @@
         <v>86</v>
       </c>
       <c r="C278" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -7299,7 +7364,7 @@
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
       <c r="Q278" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="279" spans="2:17" x14ac:dyDescent="0.25">
@@ -7314,7 +7379,7 @@
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
       <c r="L279" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
@@ -7324,7 +7389,7 @@
     </row>
     <row r="280" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
@@ -7337,7 +7402,7 @@
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
       <c r="Q280" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="281" spans="2:17" x14ac:dyDescent="0.25">
@@ -7352,7 +7417,7 @@
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
       <c r="L281" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
@@ -7382,22 +7447,22 @@
         <v>133</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L283" s="1"/>
       <c r="M283" s="1"/>
@@ -7407,10 +7472,10 @@
     </row>
     <row r="284" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E284" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>196</v>
@@ -7421,10 +7486,10 @@
         <v>86</v>
       </c>
       <c r="C285" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q285" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="286" spans="2:17" x14ac:dyDescent="0.25">
@@ -7432,14 +7497,14 @@
         <v>153</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
       <c r="L286" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
@@ -7468,7 +7533,7 @@
         <v>86</v>
       </c>
       <c r="C288" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
@@ -7481,7 +7546,7 @@
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
       <c r="Q288" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="289" spans="2:17" x14ac:dyDescent="0.25">
@@ -7496,7 +7561,7 @@
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
       <c r="L289" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
@@ -7506,7 +7571,7 @@
     </row>
     <row r="290" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
@@ -7519,7 +7584,7 @@
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
       <c r="Q290" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="291" spans="2:17" x14ac:dyDescent="0.25">
@@ -7534,7 +7599,7 @@
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
       <c r="L291" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
@@ -7574,22 +7639,22 @@
         <v>133</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="G295" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>128</v>
       </c>
       <c r="K295" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L295" s="1"/>
       <c r="M295" s="1"/>
@@ -7600,7 +7665,7 @@
     </row>
     <row r="296" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E296" t="s">
         <v>181</v>
@@ -7625,7 +7690,7 @@
         <v>86</v>
       </c>
       <c r="C297" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
@@ -7639,7 +7704,7 @@
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
       <c r="Q297" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="298" spans="2:17" x14ac:dyDescent="0.25">
@@ -7655,7 +7720,7 @@
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
       <c r="L298" s="1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
@@ -7665,7 +7730,7 @@
     </row>
     <row r="299" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
@@ -7679,7 +7744,7 @@
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
       <c r="Q299" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="300" spans="2:17" x14ac:dyDescent="0.25">
@@ -7695,7 +7760,7 @@
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
       <c r="L300" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
@@ -7725,22 +7790,22 @@
         <v>133</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K302" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L302" s="1"/>
       <c r="M302" s="1"/>
@@ -7751,10 +7816,10 @@
     </row>
     <row r="303" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D303" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E303" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>191</v>
@@ -7765,10 +7830,10 @@
         <v>86</v>
       </c>
       <c r="C304" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q304" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="305" spans="2:17" x14ac:dyDescent="0.25">
@@ -7776,14 +7841,14 @@
         <v>153</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
       <c r="L305" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
@@ -7812,7 +7877,7 @@
         <v>86</v>
       </c>
       <c r="C307" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
@@ -7825,7 +7890,7 @@
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
       <c r="Q307" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="308" spans="2:17" x14ac:dyDescent="0.25">
@@ -7840,7 +7905,7 @@
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
       <c r="L308" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
@@ -7850,7 +7915,7 @@
     </row>
     <row r="309" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
@@ -7863,7 +7928,7 @@
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
       <c r="Q309" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="310" spans="2:17" x14ac:dyDescent="0.25">
@@ -7878,7 +7943,7 @@
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
       <c r="L310" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
@@ -7908,22 +7973,22 @@
         <v>133</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L312" s="1"/>
       <c r="M312" s="1"/>
@@ -7933,10 +7998,10 @@
     </row>
     <row r="313" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E313" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>194</v>
@@ -7947,10 +8012,10 @@
         <v>86</v>
       </c>
       <c r="C314" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q314" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="315" spans="2:17" x14ac:dyDescent="0.25">
@@ -7958,14 +8023,14 @@
         <v>153</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
       <c r="L315" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
@@ -7994,7 +8059,7 @@
         <v>86</v>
       </c>
       <c r="C317" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
@@ -8007,7 +8072,7 @@
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
       <c r="Q317" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="318" spans="2:17" x14ac:dyDescent="0.25">
@@ -8022,7 +8087,7 @@
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
       <c r="L318" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
@@ -8032,7 +8097,7 @@
     </row>
     <row r="319" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
@@ -8045,7 +8110,7 @@
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
       <c r="Q319" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="320" spans="2:17" x14ac:dyDescent="0.25">
@@ -8060,7 +8125,7 @@
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
       <c r="L320" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
@@ -8090,22 +8155,22 @@
         <v>133</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G322" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L322" s="1"/>
       <c r="M322" s="1"/>
@@ -8115,10 +8180,10 @@
     </row>
     <row r="323" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E323" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>197</v>
@@ -8129,10 +8194,10 @@
         <v>86</v>
       </c>
       <c r="C324" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q324" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="325" spans="2:17" x14ac:dyDescent="0.25">
@@ -8140,14 +8205,14 @@
         <v>153</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
@@ -8176,7 +8241,7 @@
         <v>86</v>
       </c>
       <c r="C327" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
@@ -8189,7 +8254,7 @@
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
       <c r="Q327" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="328" spans="2:17" x14ac:dyDescent="0.25">
@@ -8204,7 +8269,7 @@
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
       <c r="L328" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
@@ -8214,7 +8279,7 @@
     </row>
     <row r="329" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
@@ -8227,7 +8292,7 @@
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
       <c r="Q329" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="330" spans="2:17" x14ac:dyDescent="0.25">
@@ -8242,7 +8307,7 @@
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
       <c r="L330" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
@@ -8282,22 +8347,22 @@
         <v>133</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>345</v>
+        <v>878</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="J334" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K334" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L334" s="1"/>
       <c r="M334" s="1"/>
@@ -8308,7 +8373,7 @@
     </row>
     <row r="335" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E335" t="s">
         <v>181</v>
@@ -8333,7 +8398,7 @@
         <v>86</v>
       </c>
       <c r="C336" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
@@ -8347,7 +8412,7 @@
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
       <c r="Q336" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="337" spans="2:17" x14ac:dyDescent="0.25">
@@ -8363,7 +8428,7 @@
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
       <c r="L337" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
@@ -8373,7 +8438,7 @@
     </row>
     <row r="338" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
@@ -8387,7 +8452,7 @@
       <c r="O338" s="1"/>
       <c r="P338" s="1"/>
       <c r="Q338" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="339" spans="2:17" x14ac:dyDescent="0.25">
@@ -8403,7 +8468,7 @@
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
       <c r="L339" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
@@ -8433,22 +8498,22 @@
         <v>133</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>621</v>
+        <v>879</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J341" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K341" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L341" s="1"/>
       <c r="M341" s="1"/>
@@ -8458,10 +8523,10 @@
     </row>
     <row r="342" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E342" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>198</v>
@@ -8472,10 +8537,10 @@
         <v>86</v>
       </c>
       <c r="C343" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q343" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="344" spans="2:17" x14ac:dyDescent="0.25">
@@ -8483,14 +8548,14 @@
         <v>153</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
       <c r="L344" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
@@ -8519,7 +8584,7 @@
         <v>86</v>
       </c>
       <c r="C346" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
@@ -8532,7 +8597,7 @@
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
       <c r="Q346" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="347" spans="2:17" x14ac:dyDescent="0.25">
@@ -8547,7 +8612,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
       <c r="L347" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
@@ -8557,7 +8622,7 @@
     </row>
     <row r="348" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
@@ -8570,7 +8635,7 @@
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
       <c r="Q348" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="349" spans="2:17" x14ac:dyDescent="0.25">
@@ -8585,7 +8650,7 @@
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
       <c r="L349" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
@@ -8636,15 +8701,15 @@
         <v>86</v>
       </c>
       <c r="C353" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="Q353" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B354" t="s">
         <v>19</v>
@@ -8655,10 +8720,10 @@
         <v>153</v>
       </c>
       <c r="F355" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="L355" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="356" spans="1:17" x14ac:dyDescent="0.25">
@@ -8666,13 +8731,16 @@
         <v>9</v>
       </c>
       <c r="E356" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F356" t="s">
         <v>40</v>
       </c>
       <c r="G356" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="H356" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="357" spans="1:17" x14ac:dyDescent="0.25">
@@ -8680,13 +8748,16 @@
         <v>9</v>
       </c>
       <c r="E357" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G357" t="s">
-        <v>574</v>
+        <v>568</v>
+      </c>
+      <c r="H357" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.25">
@@ -8704,13 +8775,16 @@
         <v>9</v>
       </c>
       <c r="E360" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F360" t="s">
         <v>47</v>
       </c>
       <c r="G360" t="s">
-        <v>575</v>
+        <v>569</v>
+      </c>
+      <c r="H360" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="361" spans="1:17" x14ac:dyDescent="0.25">
@@ -8718,13 +8792,16 @@
         <v>9</v>
       </c>
       <c r="E361" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F361" t="s">
         <v>48</v>
       </c>
       <c r="G361" t="s">
-        <v>577</v>
+        <v>571</v>
+      </c>
+      <c r="H361" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="362" spans="1:17" x14ac:dyDescent="0.25">
@@ -8732,13 +8809,16 @@
         <v>9</v>
       </c>
       <c r="E362" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F362" t="s">
         <v>49</v>
       </c>
       <c r="G362" t="s">
-        <v>576</v>
+        <v>570</v>
+      </c>
+      <c r="H362" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.25">
@@ -8756,13 +8836,16 @@
         <v>9</v>
       </c>
       <c r="E365" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G365" t="s">
-        <v>578</v>
+        <v>572</v>
+      </c>
+      <c r="H365" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="366" spans="1:17" x14ac:dyDescent="0.25">
@@ -8770,13 +8853,16 @@
         <v>9</v>
       </c>
       <c r="E366" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F366" t="s">
         <v>45</v>
       </c>
       <c r="G366" t="s">
-        <v>579</v>
+        <v>573</v>
+      </c>
+      <c r="H366" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="367" spans="1:17" x14ac:dyDescent="0.25">
@@ -8784,13 +8870,16 @@
         <v>9</v>
       </c>
       <c r="E367" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F367" t="s">
         <v>46</v>
       </c>
       <c r="G367" t="s">
-        <v>580</v>
+        <v>574</v>
+      </c>
+      <c r="H367" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="368" spans="1:17" x14ac:dyDescent="0.25">
@@ -8808,13 +8897,16 @@
         <v>9</v>
       </c>
       <c r="E370" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F370" t="s">
         <v>50</v>
       </c>
       <c r="G370" t="s">
-        <v>581</v>
+        <v>575</v>
+      </c>
+      <c r="H370" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="371" spans="1:16" x14ac:dyDescent="0.25">
@@ -8822,13 +8914,16 @@
         <v>9</v>
       </c>
       <c r="E371" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F371" t="s">
         <v>51</v>
       </c>
       <c r="G371" t="s">
-        <v>582</v>
+        <v>576</v>
+      </c>
+      <c r="H371" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="372" spans="1:16" x14ac:dyDescent="0.25">
@@ -8836,13 +8931,16 @@
         <v>9</v>
       </c>
       <c r="E372" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G372" t="s">
-        <v>583</v>
+        <v>577</v>
+      </c>
+      <c r="H372" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="373" spans="1:16" x14ac:dyDescent="0.25">
@@ -8860,13 +8958,16 @@
         <v>9</v>
       </c>
       <c r="E375" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G375" t="s">
-        <v>584</v>
+        <v>578</v>
+      </c>
+      <c r="H375" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="376" spans="1:16" x14ac:dyDescent="0.25">
@@ -8874,13 +8975,16 @@
         <v>9</v>
       </c>
       <c r="E376" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G376" t="s">
-        <v>585</v>
+        <v>579</v>
+      </c>
+      <c r="H376" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="377" spans="1:16" x14ac:dyDescent="0.25">
@@ -8898,13 +9002,16 @@
         <v>9</v>
       </c>
       <c r="E379" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G379" t="s">
-        <v>586</v>
+        <v>580</v>
+      </c>
+      <c r="H379" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="380" spans="1:16" x14ac:dyDescent="0.25">
@@ -8912,13 +9019,16 @@
         <v>9</v>
       </c>
       <c r="E380" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>345</v>
+        <v>877</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="381" spans="1:16" x14ac:dyDescent="0.25">
@@ -8926,13 +9036,16 @@
         <v>9</v>
       </c>
       <c r="E381" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G381" t="s">
-        <v>623</v>
+        <v>880</v>
+      </c>
+      <c r="H381" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="382" spans="1:16" x14ac:dyDescent="0.25">
@@ -8975,10 +9088,10 @@
         <v>107</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>797</v>
+        <v>856</v>
       </c>
       <c r="H385" s="1" t="s">
-        <v>798</v>
+        <v>857</v>
       </c>
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
@@ -9003,7 +9116,7 @@
         <v>109</v>
       </c>
       <c r="H386" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
@@ -9019,15 +9132,15 @@
         <v>153</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
       <c r="K387" s="1"/>
-      <c r="L387" s="23">
-        <v>1804</v>
+      <c r="L387" s="22">
+        <v>1905</v>
       </c>
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
@@ -9039,7 +9152,7 @@
         <v>86</v>
       </c>
       <c r="C388" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
@@ -9058,7 +9171,7 @@
         <v>153</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
@@ -9066,7 +9179,7 @@
       <c r="J389" s="1"/>
       <c r="K389" s="1"/>
       <c r="L389" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="M389" s="1"/>
       <c r="N389" s="1"/>
@@ -9332,8 +9445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9341,7 +9454,7 @@
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -9370,7 +9483,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9385,7 +9498,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -9400,7 +9513,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9415,7 +9528,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -9430,7 +9543,7 @@
         <v>137</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -9445,7 +9558,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -9460,7 +9573,7 @@
         <v>116</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -9475,7 +9588,7 @@
         <v>155</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -9490,7 +9603,7 @@
         <v>156</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -9502,10 +9615,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -9520,7 +9633,7 @@
         <v>157</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -9535,7 +9648,7 @@
         <v>158</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -9549,7 +9662,7 @@
         <v>159</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -9557,24 +9670,28 @@
         <v>80</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>613</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>478</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -9587,7 +9704,7 @@
         <v>160</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9601,7 +9718,7 @@
         <v>161</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9609,13 +9726,13 @@
         <v>80</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9626,10 +9743,10 @@
         <v>84</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9701,10 +9818,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9716,10 +9833,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -9734,7 +9851,7 @@
         <v>166</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -9749,7 +9866,7 @@
         <v>167</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9764,7 +9881,7 @@
         <v>168</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -9779,7 +9896,7 @@
         <v>169</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -9791,10 +9908,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -9809,7 +9926,7 @@
         <v>170</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9824,7 +9941,7 @@
         <v>171</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9839,7 +9956,7 @@
         <v>172</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -9851,10 +9968,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -9869,7 +9986,7 @@
         <v>173</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -9884,12 +10001,12 @@
         <v>174</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>139</v>
@@ -9903,7 +10020,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>141</v>
@@ -9917,7 +10034,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>210</v>
@@ -9931,7 +10048,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>142</v>
@@ -9945,7 +10062,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>143</v>
@@ -9959,7 +10076,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>144</v>
@@ -9973,13 +10090,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>203</v>
@@ -9987,7 +10104,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>147</v>
@@ -9996,26 +10113,26 @@
         <v>117</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>116</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>205</v>
@@ -10029,63 +10146,63 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>207</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>208</v>
@@ -10099,37 +10216,41 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="D53" s="7"/>
+        <v>414</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="D54" s="7"/>
+        <v>416</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>211</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>212</v>
@@ -10137,33 +10258,35 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D57" s="7"/>
+        <v>420</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>213</v>
@@ -10177,21 +10300,21 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>147</v>
@@ -10200,21 +10323,21 @@
         <v>204</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -10222,13 +10345,13 @@
         <v>181</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -10236,70 +10359,76 @@
         <v>181</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="D63" s="5"/>
+        <v>479</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D64" s="5"/>
+        <v>480</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B65" s="7" t="str">
         <f>"111111111"</f>
         <v>111111111</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B66" s="7" t="str">
         <f>"999999999"</f>
         <v>999999999</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="D66" s="7"/>
+        <v>462</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>205</v>
@@ -10313,21 +10442,21 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>176</v>
@@ -10341,21 +10470,21 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>177</v>
@@ -10369,161 +10498,161 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>147</v>
@@ -10532,377 +10661,397 @@
         <v>117</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>187</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="D87" s="7"/>
+        <v>479</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="D88" s="7"/>
+        <v>480</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="D91" s="5"/>
+        <v>479</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D92" s="5"/>
+        <v>480</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="D93" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>187</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="D95" s="7"/>
+        <v>479</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="D96" s="7"/>
+        <v>480</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="D99" s="5"/>
+        <v>479</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D100" s="5"/>
+        <v>480</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>187</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="D103" s="7"/>
+        <v>479</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="D104" s="7"/>
+        <v>480</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
         <v>99999</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B106" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B107" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B108" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B109" s="7" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B110" s="7" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B111" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B112" s="7" t="str">
         <f>"999"</f>
@@ -10912,12 +11061,12 @@
         <v>116</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B113" s="5" t="str">
         <f>"11"</f>
@@ -10934,7 +11083,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B114" s="5" t="str">
         <f>"12"</f>
@@ -10951,7 +11100,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B115" s="5" t="str">
         <f>"13"</f>
@@ -10968,7 +11117,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B116" s="5" t="str">
         <f>"14"</f>
@@ -10985,7 +11134,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B117" s="5" t="str">
         <f>"15"</f>
@@ -11002,7 +11151,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B118" s="5" t="str">
         <f>"16"</f>
@@ -11019,7 +11168,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B119" s="5" t="str">
         <f>"17"</f>
@@ -11036,7 +11185,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B120" s="5" t="str">
         <f>"18"</f>
@@ -11053,7 +11202,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B121" s="5" t="str">
         <f>"19"</f>
@@ -11070,7 +11219,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B122" s="5" t="str">
         <f>"999"</f>
@@ -11080,12 +11229,12 @@
         <v>116</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B123" s="7" t="str">
         <f>"21"</f>
@@ -11102,7 +11251,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B124" s="7" t="str">
         <f>"22"</f>
@@ -11119,7 +11268,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B125" s="7" t="str">
         <f>"23"</f>
@@ -11136,7 +11285,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B126" s="7" t="str">
         <f t="shared" ref="B126:D127" si="0">"24"</f>
@@ -11153,7 +11302,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B127" s="7" t="str">
         <f t="shared" si="0"/>
@@ -11170,7 +11319,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B128" s="7" t="str">
         <f>"25"</f>
@@ -11187,7 +11336,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B129" s="7" t="str">
         <f>"26"</f>
@@ -11204,7 +11353,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B130" s="7" t="str">
         <f>"27"</f>
@@ -11221,7 +11370,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B131" s="7" t="str">
         <f>"28"</f>
@@ -11238,7 +11387,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B132" s="7" t="str">
         <f>"999"</f>
@@ -11248,12 +11397,12 @@
         <v>116</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B133" s="5" t="str">
         <f>"31"</f>
@@ -11270,7 +11419,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B134" s="5" t="str">
         <f>"32"</f>
@@ -11287,7 +11436,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B135" s="5" t="str">
         <f>"33"</f>
@@ -11304,7 +11453,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B136" s="5" t="str">
         <f>"34"</f>
@@ -11321,7 +11470,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B137" s="5" t="str">
         <f>"35"</f>
@@ -11338,7 +11487,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B138" s="5" t="str">
         <f>"999"</f>
@@ -11348,12 +11497,12 @@
         <v>116</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B139" s="7" t="str">
         <f>"42"</f>
@@ -11370,7 +11519,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B140" s="7" t="str">
         <f>"43"</f>
@@ -11387,7 +11536,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B141" s="7" t="str">
         <f>"44"</f>
@@ -11404,7 +11553,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B142" s="7" t="str">
         <f>"999"</f>
@@ -11414,12 +11563,12 @@
         <v>116</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B143" s="5" t="str">
         <f>"71"</f>
@@ -11436,7 +11585,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B144" s="5" t="str">
         <f>"72"</f>
@@ -11453,7 +11602,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B145" s="5" t="str">
         <f>"73"</f>
@@ -11470,7 +11619,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B146" s="5" t="str">
         <f>"74"</f>
@@ -11487,7 +11636,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B147" s="5" t="str">
         <f>"75"</f>
@@ -11504,7 +11653,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B148" s="5" t="str">
         <f>"76"</f>
@@ -11521,7 +11670,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B149" s="5" t="str">
         <f>"77"</f>
@@ -11538,7 +11687,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B150" s="5" t="str">
         <f>"78"</f>
@@ -11555,7 +11704,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B151" s="5" t="str">
         <f>"79"</f>
@@ -11572,7 +11721,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B152" s="5" t="str">
         <f>"999"</f>
@@ -11582,12 +11731,12 @@
         <v>116</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B153" s="7" t="str">
         <f>"92"</f>
@@ -11604,7 +11753,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B154" s="7" t="str">
         <f>"93"</f>
@@ -11621,7 +11770,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B155" s="7" t="str">
         <f>"94"</f>
@@ -11638,7 +11787,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B156" s="7" t="str">
         <f>"999"</f>
@@ -11648,761 +11797,819 @@
         <v>116</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B157" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B158" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B159" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B160" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B161" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B162" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B163" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B164" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B165" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B166" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>187</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="D168" s="7"/>
+        <v>479</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="D169" s="7"/>
+        <v>480</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="21" t="s">
+      <c r="A170" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B170" s="21" t="str">
+      <c r="B170" s="5" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D170" s="21" t="s">
-        <v>368</v>
+      <c r="D170" s="5" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="D171" s="7"/>
+        <v>696</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="D172" s="7"/>
+        <v>697</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="D173" s="7"/>
+        <v>698</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B174" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="D174" s="5"/>
+        <v>674</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B175" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="D175" s="5"/>
+        <v>675</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B176" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="D176" s="5"/>
+        <v>676</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B177" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="D177" s="5"/>
+        <v>677</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B178" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="D178" s="5"/>
+        <v>678</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B179" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="D179" s="5"/>
+        <v>679</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B180" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="D180" s="5"/>
+        <v>680</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B181" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="D181" s="5"/>
+        <v>681</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B182" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="D182" s="5"/>
+        <v>682</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B183" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="D183" s="5"/>
+        <v>683</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="D184" s="7"/>
+        <v>689</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B185" s="5" t="str">
         <f>"55"</f>
         <v>55</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="D185" s="5"/>
+        <v>703</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>867</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B186" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="D186" s="5"/>
+        <v>700</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B187" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="D187" s="5"/>
+        <v>701</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B188" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="D188" s="5"/>
+        <v>702</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="D189" s="7"/>
+        <v>479</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B204" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="D204" s="7"/>
+        <v>714</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="D205" s="5"/>
+        <v>703</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>867</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="D206" s="5"/>
+        <v>700</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B207" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="D207" s="5"/>
+        <v>701</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B208" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="D208" s="5"/>
+        <v>702</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="D209" s="7"/>
+        <v>737</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="D210" s="7"/>
+        <v>738</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="D211" s="7"/>
+        <v>739</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -12412,124 +12619,124 @@
         <v>116</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>146</v>
@@ -12538,37 +12745,41 @@
         <v>116</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="26" t="s">
-        <v>757</v>
+      <c r="A222" s="25" t="s">
+        <v>749</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="D222" s="5"/>
+        <v>750</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="D223" s="7"/>
+        <v>738</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -12578,217 +12789,217 @@
         <v>116</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B225" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
-      <c r="C225" s="27" t="s">
-        <v>829</v>
-      </c>
-      <c r="D225" s="27" t="s">
-        <v>829</v>
+      <c r="C225" s="26" t="s">
+        <v>819</v>
+      </c>
+      <c r="D225" s="26" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B226" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C226" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="D226" s="28" t="s">
-        <v>830</v>
+      <c r="C226" s="27" t="s">
+        <v>820</v>
+      </c>
+      <c r="D226" s="27" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B227" s="5" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
-      <c r="C227" s="28" t="s">
-        <v>831</v>
-      </c>
-      <c r="D227" s="28" t="s">
-        <v>831</v>
+      <c r="C227" s="27" t="s">
+        <v>821</v>
+      </c>
+      <c r="D227" s="27" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B228" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
-      <c r="C228" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="D228" s="28" t="s">
-        <v>832</v>
+      <c r="C228" s="27" t="s">
+        <v>822</v>
+      </c>
+      <c r="D228" s="27" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B229" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C229" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="D229" s="28" t="s">
-        <v>833</v>
+      <c r="C229" s="27" t="s">
+        <v>823</v>
+      </c>
+      <c r="D229" s="27" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B230" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
-      <c r="C230" s="28" t="s">
-        <v>834</v>
-      </c>
-      <c r="D230" s="28" t="s">
-        <v>834</v>
+      <c r="C230" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="D230" s="27" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B231" s="5" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
-      <c r="C231" s="28" t="s">
-        <v>835</v>
-      </c>
-      <c r="D231" s="28" t="s">
-        <v>835</v>
+      <c r="C231" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="D231" s="27" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B232" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C232" s="28" t="s">
-        <v>836</v>
-      </c>
-      <c r="D232" s="28" t="s">
-        <v>836</v>
+      <c r="C232" s="27" t="s">
+        <v>826</v>
+      </c>
+      <c r="D232" s="27" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B233" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C233" s="28" t="s">
-        <v>837</v>
-      </c>
-      <c r="D233" s="28" t="s">
-        <v>837</v>
+      <c r="C233" s="27" t="s">
+        <v>827</v>
+      </c>
+      <c r="D233" s="27" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B234" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C234" s="28" t="s">
-        <v>838</v>
-      </c>
-      <c r="D234" s="28" t="s">
-        <v>838</v>
+      <c r="C234" s="27" t="s">
+        <v>828</v>
+      </c>
+      <c r="D234" s="27" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B235" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C235" s="28" t="s">
-        <v>839</v>
-      </c>
-      <c r="D235" s="28" t="s">
-        <v>839</v>
+      <c r="C235" s="27" t="s">
+        <v>829</v>
+      </c>
+      <c r="D235" s="27" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B236" s="5" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
-      <c r="C236" s="28" t="s">
-        <v>840</v>
-      </c>
-      <c r="D236" s="28" t="s">
-        <v>840</v>
+      <c r="C236" s="27" t="s">
+        <v>830</v>
+      </c>
+      <c r="D236" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B237" s="5" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
-      <c r="C237" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="D237" s="28" t="s">
-        <v>841</v>
+      <c r="C237" s="27" t="s">
+        <v>831</v>
+      </c>
+      <c r="D237" s="27" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B238" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C238" s="28" t="s">
-        <v>842</v>
-      </c>
-      <c r="D238" s="28" t="s">
-        <v>842</v>
+      <c r="C238" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="D238" s="27" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -12820,7 +13031,7 @@
         <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12828,10 +13039,10 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -12865,7 +13076,7 @@
         <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -12879,7 +13090,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -12891,7 +13102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
   <dimension ref="A1:XFD177"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A64" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -12911,7 +13122,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
@@ -12930,7 +13141,7 @@
     </row>
     <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>91</v>
@@ -12941,7 +13152,7 @@
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>91</v>
@@ -13007,7 +13218,7 @@
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>21</v>
@@ -13018,7 +13229,7 @@
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>21</v>
@@ -29409,7 +29620,7 @@
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>8</v>
@@ -45901,7 +46112,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>8</v>
@@ -45912,7 +46123,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>8</v>
@@ -45923,7 +46134,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>8</v>
@@ -45934,7 +46145,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>91</v>
@@ -46099,7 +46310,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>9</v>
@@ -46110,7 +46321,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>91</v>
@@ -46121,7 +46332,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>8</v>
@@ -46154,7 +46365,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>21</v>
@@ -46176,7 +46387,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>8</v>
@@ -46187,7 +46398,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>9</v>
@@ -46220,7 +46431,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>21</v>
@@ -46253,7 +46464,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>9</v>
@@ -46275,7 +46486,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>8</v>
@@ -46286,7 +46497,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>8</v>
@@ -46440,7 +46651,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>8</v>
@@ -46462,7 +46673,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>8</v>
@@ -46484,7 +46695,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>8</v>
@@ -46495,10 +46706,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C76" s="15" t="b">
         <v>1</v>
@@ -46506,10 +46717,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C77" s="15" t="b">
         <v>1</v>
@@ -46517,7 +46728,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>91</v>
@@ -46528,7 +46739,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>91</v>
@@ -46542,7 +46753,7 @@
         <v>134</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C80" s="15" t="b">
         <v>1</v>
@@ -46553,7 +46764,7 @@
         <v>188</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C81" s="15" t="b">
         <v>1</v>
@@ -46561,7 +46772,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>133</v>
@@ -46575,7 +46786,7 @@
         <v>195</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C83" s="15" t="b">
         <v>1</v>
@@ -46583,7 +46794,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>133</v>
@@ -46597,7 +46808,7 @@
         <v>196</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C85" s="15" t="b">
         <v>1</v>
@@ -46605,7 +46816,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>133</v>
@@ -46616,10 +46827,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C87" s="15" t="b">
         <v>1</v>
@@ -46627,7 +46838,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B88" s="15" t="s">
         <v>91</v>
@@ -46638,7 +46849,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>91</v>
@@ -46649,7 +46860,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B90" s="15" t="s">
         <v>91</v>
@@ -46660,7 +46871,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>91</v>
@@ -46671,7 +46882,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B92" s="15" t="s">
         <v>91</v>
@@ -46682,7 +46893,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>91</v>
@@ -46693,7 +46904,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>91</v>
@@ -46704,7 +46915,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>21</v>
@@ -46715,10 +46926,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C96" s="15" t="b">
         <v>1</v>
@@ -46726,7 +46937,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B97" s="15" t="s">
         <v>21</v>
@@ -46737,10 +46948,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C98" s="15" t="b">
         <v>1</v>
@@ -46748,7 +46959,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B99" s="15" t="s">
         <v>21</v>
@@ -46759,10 +46970,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C100" s="15" t="b">
         <v>1</v>
@@ -46773,7 +46984,7 @@
         <v>183</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C101" s="15" t="b">
         <v>1</v>
@@ -46781,7 +46992,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>133</v>
@@ -46795,7 +47006,7 @@
         <v>198</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C103" s="15" t="b">
         <v>1</v>
@@ -46803,7 +47014,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>133</v>
@@ -46817,7 +47028,7 @@
         <v>189</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C105" s="15" t="b">
         <v>1</v>
@@ -46825,7 +47036,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>133</v>
@@ -46839,7 +47050,7 @@
         <v>190</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C107" s="15" t="b">
         <v>1</v>
@@ -46847,7 +47058,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>133</v>
@@ -46861,7 +47072,7 @@
         <v>191</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C109" s="15" t="b">
         <v>1</v>
@@ -46869,7 +47080,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>133</v>
@@ -46883,7 +47094,7 @@
         <v>192</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C111" s="15" t="b">
         <v>1</v>
@@ -46891,7 +47102,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>133</v>
@@ -46905,7 +47116,7 @@
         <v>193</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C113" s="15" t="b">
         <v>1</v>
@@ -46913,7 +47124,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>133</v>
@@ -46927,7 +47138,7 @@
         <v>194</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C115" s="15" t="b">
         <v>1</v>
@@ -46935,7 +47146,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>133</v>
@@ -46949,7 +47160,7 @@
         <v>184</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C117" s="15" t="b">
         <v>1</v>
@@ -46957,7 +47168,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>133</v>
@@ -46971,7 +47182,7 @@
         <v>185</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C119" s="15" t="b">
         <v>1</v>
@@ -46979,7 +47190,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>133</v>
@@ -46993,7 +47204,7 @@
         <v>186</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C121" s="15" t="b">
         <v>1</v>
@@ -47001,7 +47212,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B122" s="15" t="s">
         <v>133</v>
@@ -47015,7 +47226,7 @@
         <v>197</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C123" s="15" t="b">
         <v>1</v>
@@ -47023,7 +47234,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B124" s="15" t="s">
         <v>133</v>
@@ -47037,7 +47248,7 @@
         <v>199</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C125" s="15" t="b">
         <v>1</v>
@@ -47045,7 +47256,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B126" s="15" t="s">
         <v>133</v>
@@ -47056,7 +47267,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>9</v>
@@ -47067,7 +47278,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>8</v>
@@ -47078,7 +47289,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>8</v>
@@ -47089,7 +47300,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>8</v>
@@ -47100,10 +47311,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C131" s="18" t="b">
         <v>1</v>
@@ -47111,10 +47322,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C132" s="18" t="b">
         <v>1</v>
@@ -47122,172 +47333,172 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C133" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="29" t="s">
-        <v>843</v>
-      </c>
-      <c r="B134" s="29" t="s">
+      <c r="A134" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="B134" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="29" t="b">
+      <c r="C134" s="28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="30" t="s">
-        <v>847</v>
-      </c>
-      <c r="B135" s="30" t="s">
+      <c r="A135" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="B135" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C135" s="30" t="b">
+      <c r="C135" s="29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="24" t="s">
-        <v>787</v>
-      </c>
-      <c r="B136" s="24" t="s">
+      <c r="A136" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="B136" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C136" s="24" t="b">
+      <c r="C136" s="23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="24" t="s">
-        <v>792</v>
-      </c>
-      <c r="B137" s="24" t="s">
+      <c r="A137" s="23" t="s">
+        <v>784</v>
+      </c>
+      <c r="B137" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="24" t="b">
+      <c r="C137" s="23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="24" t="s">
-        <v>790</v>
-      </c>
-      <c r="B138" s="24" t="s">
+      <c r="A138" s="23" t="s">
+        <v>782</v>
+      </c>
+      <c r="B138" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="24" t="b">
+      <c r="C138" s="23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="24" t="s">
-        <v>788</v>
-      </c>
-      <c r="B139" s="24" t="s">
+      <c r="A139" s="23" t="s">
+        <v>780</v>
+      </c>
+      <c r="B139" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="24" t="b">
+      <c r="C139" s="23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="24" t="s">
-        <v>701</v>
-      </c>
-      <c r="B140" s="24" t="s">
+      <c r="A140" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="B140" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="24" t="b">
+      <c r="C140" s="23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="24" t="s">
-        <v>718</v>
-      </c>
-      <c r="B141" s="24" t="s">
+      <c r="A141" s="23" t="s">
+        <v>710</v>
+      </c>
+      <c r="B141" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="24" t="b">
+      <c r="C141" s="23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="25" t="s">
-        <v>789</v>
-      </c>
-      <c r="B142" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="C142" s="25" t="b">
+      <c r="A142" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="B142" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" s="24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="25" t="s">
-        <v>827</v>
-      </c>
-      <c r="B143" s="25" t="s">
+      <c r="A143" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="B143" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C143" s="25" t="b">
+      <c r="C143" s="24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="25" t="s">
-        <v>826</v>
-      </c>
-      <c r="B144" s="25" t="s">
+      <c r="A144" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="B144" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C144" s="25" t="b">
+      <c r="C144" s="24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="22" t="s">
-        <v>848</v>
-      </c>
-      <c r="B145" s="22" t="s">
+      <c r="A145" s="21" t="s">
+        <v>838</v>
+      </c>
+      <c r="B145" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="22" t="b">
+      <c r="C145" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
-        <v>791</v>
-      </c>
-      <c r="B146" s="22" t="s">
+      <c r="A146" s="21" t="s">
+        <v>783</v>
+      </c>
+      <c r="B146" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="22" t="b">
+      <c r="C146" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="B147" s="22" t="s">
+      <c r="A147" s="21" t="s">
+        <v>719</v>
+      </c>
+      <c r="B147" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C147" s="22" t="b">
+      <c r="C147" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>8</v>
@@ -47298,7 +47509,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>8</v>
@@ -47309,7 +47520,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>8</v>
@@ -47320,7 +47531,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="B151" s="19" t="s">
         <v>8</v>
@@ -47331,7 +47542,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>21</v>
@@ -47342,7 +47553,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>21</v>
@@ -47353,7 +47564,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>21</v>
@@ -47364,7 +47575,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>21</v>
@@ -47375,7 +47586,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>100</v>
@@ -47386,7 +47597,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>21</v>
@@ -47397,7 +47608,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>21</v>
@@ -47408,7 +47619,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>21</v>
@@ -47419,7 +47630,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>133</v>
@@ -47430,7 +47641,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>8</v>
@@ -47441,7 +47652,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>91</v>
@@ -47452,7 +47663,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>91</v>
@@ -47463,7 +47674,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B164" s="19" t="s">
         <v>21</v>
@@ -47474,10 +47685,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C165" s="10" t="b">
         <v>1</v>
@@ -47485,10 +47696,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C166" s="10" t="b">
         <v>1</v>
@@ -47496,10 +47707,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C167" s="10" t="b">
         <v>1</v>
@@ -47507,10 +47718,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C168" s="10" t="b">
         <v>1</v>
@@ -47518,7 +47729,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -47529,10 +47740,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C170" s="10" t="b">
         <v>1</v>
@@ -47540,10 +47751,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C171" s="10" t="b">
         <v>1</v>
@@ -47551,10 +47762,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C172" s="10" t="b">
         <v>1</v>
@@ -47562,10 +47773,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C173" s="10" t="b">
         <v>1</v>
@@ -47573,10 +47784,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C174" s="10" t="b">
         <v>1</v>
@@ -47584,7 +47795,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="B175" s="10" t="s">
         <v>91</v>
@@ -47595,10 +47806,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C176" s="10" t="b">
         <v>1</v>
@@ -47606,10 +47817,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C177" s="10" t="b">
         <v>1</v>

--- a/app/config/tables/pediatria/forms/triagem/triagem.xlsx
+++ b/app/config/tables/pediatria/forms/triagem/triagem.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CB26C6-DB91-494B-853C-E95E0BBA8F97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217F9ECB-5BCF-4527-9404-E55508B07F1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="871">
   <si>
     <t>setting_name</t>
   </si>
@@ -721,9 +721,6 @@
     <t>Medição vertical</t>
   </si>
   <si>
-    <t>Medição Horizontal</t>
-  </si>
-  <si>
     <t>selected(data('cicbcgmae'),'1')</t>
   </si>
   <si>
@@ -1348,9 +1345,6 @@
     <t>Bubaque</t>
   </si>
   <si>
-    <t>Bdama</t>
-  </si>
-  <si>
     <t>NTS</t>
   </si>
   <si>
@@ -2648,6 +2642,9 @@
   </si>
   <si>
     <t>Did not participate</t>
+  </si>
+  <si>
+    <t>Bolama</t>
   </si>
 </sst>
 </file>
@@ -3183,7 +3180,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3192,7 +3189,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3235,7 +3232,7 @@
         <v>205</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F1" t="s">
         <v>199</v>
@@ -3265,7 +3262,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3298,7 +3295,7 @@
         <v>201</v>
       </c>
       <c r="F7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3321,9 +3318,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
   <dimension ref="A1:Q452"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G176" sqref="G176:G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3349,7 +3346,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -3379,22 +3376,22 @@
         <v>122</v>
       </c>
       <c r="K1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L1" t="s">
         <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q1" t="s">
         <v>32</v>
@@ -3413,13 +3410,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -3438,13 +3435,13 @@
         <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -3474,10 +3471,10 @@
         <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3513,10 +3510,10 @@
     </row>
     <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F10" t="s">
         <v>134</v>
@@ -3527,10 +3524,10 @@
         <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="Q11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3541,7 +3538,7 @@
         <v>135</v>
       </c>
       <c r="H12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3558,7 +3555,7 @@
         <v>213</v>
       </c>
       <c r="P13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3581,10 +3578,10 @@
         <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3592,16 +3589,16 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
+        <v>769</v>
+      </c>
+      <c r="G15" t="s">
+        <v>770</v>
+      </c>
+      <c r="H15" t="s">
         <v>771</v>
       </c>
-      <c r="G15" t="s">
-        <v>772</v>
-      </c>
-      <c r="H15" t="s">
-        <v>773</v>
-      </c>
       <c r="P15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3618,7 +3615,7 @@
         <v>215</v>
       </c>
       <c r="P16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3638,22 +3635,22 @@
     </row>
     <row r="20" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G20" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H20" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="Q20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3663,13 +3660,13 @@
     </row>
     <row r="22" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>411</v>
+      </c>
+      <c r="C22" t="s">
         <v>412</v>
       </c>
-      <c r="C22" t="s">
-        <v>413</v>
-      </c>
       <c r="Q22" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3682,10 +3679,10 @@
         <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q24" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3693,13 +3690,13 @@
         <v>153</v>
       </c>
       <c r="F25" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q25" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3707,7 +3704,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G26" t="s">
         <v>111</v>
@@ -3719,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3730,10 +3727,10 @@
         <v>161</v>
       </c>
       <c r="N27" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="P27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q27" t="s">
         <v>111</v>
@@ -3747,10 +3744,10 @@
         <v>110</v>
       </c>
       <c r="L28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="Q28" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3763,10 +3760,10 @@
         <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q30" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="31" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3774,13 +3771,13 @@
         <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q31" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3788,7 +3785,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G32" t="s">
         <v>111</v>
@@ -3808,10 +3805,10 @@
         <v>162</v>
       </c>
       <c r="N33" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="P33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3822,7 +3819,7 @@
         <v>112</v>
       </c>
       <c r="L34" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3835,10 +3832,10 @@
         <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q36" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3846,13 +3843,13 @@
         <v>153</v>
       </c>
       <c r="F37" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q37" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3860,7 +3857,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G38" t="s">
         <v>111</v>
@@ -3880,10 +3877,10 @@
         <v>163</v>
       </c>
       <c r="N39" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="P39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3894,7 +3891,7 @@
         <v>113</v>
       </c>
       <c r="L40" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3929,18 +3926,18 @@
         <v>72</v>
       </c>
       <c r="P44" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E45" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F45" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3948,10 +3945,10 @@
         <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Q46" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -3988,13 +3985,13 @@
         <v>79</v>
       </c>
       <c r="F51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H51" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
@@ -4002,10 +3999,10 @@
         <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q52" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4013,19 +4010,19 @@
         <v>91</v>
       </c>
       <c r="E53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G53" t="s">
+        <v>368</v>
+      </c>
+      <c r="H53" t="s">
         <v>369</v>
       </c>
-      <c r="H53" t="s">
-        <v>370</v>
-      </c>
       <c r="Q53" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
@@ -4033,10 +4030,10 @@
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q54" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
@@ -4044,19 +4041,19 @@
         <v>91</v>
       </c>
       <c r="E55" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F55" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P55" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
@@ -4067,7 +4064,7 @@
         <v>70</v>
       </c>
       <c r="L56" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
@@ -4080,10 +4077,10 @@
         <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q58" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4091,19 +4088,19 @@
         <v>91</v>
       </c>
       <c r="E59" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F59" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
@@ -4114,7 +4111,7 @@
         <v>70</v>
       </c>
       <c r="L60" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
@@ -4127,10 +4124,10 @@
         <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q62" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
@@ -4138,19 +4135,19 @@
         <v>91</v>
       </c>
       <c r="E63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4161,7 +4158,7 @@
         <v>70</v>
       </c>
       <c r="L64" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.25">
@@ -4174,10 +4171,10 @@
         <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q66" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.25">
@@ -4185,19 +4182,19 @@
         <v>91</v>
       </c>
       <c r="E67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.25">
@@ -4208,7 +4205,7 @@
         <v>70</v>
       </c>
       <c r="L68" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.25">
@@ -4221,10 +4218,10 @@
         <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q70" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
@@ -4232,19 +4229,19 @@
         <v>91</v>
       </c>
       <c r="E71" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F71" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G71" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H71" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P71" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.25">
@@ -4255,7 +4252,7 @@
         <v>70</v>
       </c>
       <c r="L72" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
@@ -4268,10 +4265,10 @@
         <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q74" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
@@ -4279,19 +4276,19 @@
         <v>91</v>
       </c>
       <c r="E75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G75" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H75" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P75" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
@@ -4302,7 +4299,7 @@
         <v>70</v>
       </c>
       <c r="L76" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
@@ -4315,10 +4312,10 @@
         <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="Q78" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
@@ -4329,7 +4326,7 @@
         <v>70</v>
       </c>
       <c r="L79" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
@@ -4342,10 +4339,10 @@
         <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="Q81" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
@@ -4353,27 +4350,27 @@
         <v>21</v>
       </c>
       <c r="F82" t="s">
+        <v>371</v>
+      </c>
+      <c r="G82" t="s">
         <v>372</v>
       </c>
-      <c r="G82" t="s">
-        <v>373</v>
-      </c>
       <c r="H82" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P82" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E83" t="s">
         <v>146</v>
       </c>
       <c r="F83" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
@@ -4381,10 +4378,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Q84" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
@@ -4392,7 +4389,7 @@
         <v>153</v>
       </c>
       <c r="F85" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L85">
         <v>99999</v>
@@ -4413,10 +4410,10 @@
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="Q88" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
@@ -4424,19 +4421,19 @@
         <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G89" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="H89" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="P89" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q89" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
@@ -4454,10 +4451,10 @@
         <v>86</v>
       </c>
       <c r="C92" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q92" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
@@ -4468,24 +4465,24 @@
         <v>79</v>
       </c>
       <c r="F93" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G93" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="H93" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C94" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Q94" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
@@ -4493,16 +4490,16 @@
         <v>91</v>
       </c>
       <c r="E95" t="s">
+        <v>426</v>
+      </c>
+      <c r="F95" t="s">
+        <v>426</v>
+      </c>
+      <c r="G95" t="s">
         <v>427</v>
       </c>
-      <c r="F95" t="s">
-        <v>427</v>
-      </c>
-      <c r="G95" t="s">
-        <v>428</v>
-      </c>
       <c r="H95" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
@@ -4510,16 +4507,16 @@
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G96" t="s">
+        <v>368</v>
+      </c>
+      <c r="H96" t="s">
         <v>369</v>
       </c>
-      <c r="H96" t="s">
-        <v>370</v>
-      </c>
       <c r="P96" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
@@ -4527,16 +4524,16 @@
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G97" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H97" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="P97" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
@@ -4573,7 +4570,7 @@
         <v>219</v>
       </c>
       <c r="P102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.25">
@@ -4590,7 +4587,7 @@
         <v>220</v>
       </c>
       <c r="P103" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.25">
@@ -4608,10 +4605,10 @@
         <v>91</v>
       </c>
       <c r="E106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F106" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G106" t="s">
         <v>76</v>
@@ -4625,10 +4622,10 @@
         <v>86</v>
       </c>
       <c r="C107" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="Q107" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.25">
@@ -4636,19 +4633,19 @@
         <v>91</v>
       </c>
       <c r="E108" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F108" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G108" t="s">
         <v>148</v>
       </c>
       <c r="H108" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="P108" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
@@ -4661,10 +4658,10 @@
         <v>86</v>
       </c>
       <c r="C110" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="Q110" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
@@ -4675,15 +4672,15 @@
         <v>75</v>
       </c>
       <c r="L111" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q112" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.25">
@@ -4694,7 +4691,7 @@
         <v>75</v>
       </c>
       <c r="L113" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.25">
@@ -4716,7 +4713,7 @@
         <v>198</v>
       </c>
       <c r="H115" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.25">
@@ -4727,7 +4724,7 @@
         <v>150</v>
       </c>
       <c r="Q116" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
@@ -4741,10 +4738,10 @@
         <v>151</v>
       </c>
       <c r="H117" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="P117" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.25">
@@ -4766,7 +4763,7 @@
         <v>197</v>
       </c>
       <c r="H119" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
@@ -4774,7 +4771,7 @@
         <v>86</v>
       </c>
       <c r="C120" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
@@ -4782,10 +4779,10 @@
         <v>153</v>
       </c>
       <c r="F121" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="L121" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.25">
@@ -4793,10 +4790,10 @@
         <v>153</v>
       </c>
       <c r="F122" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="L122" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.25">
@@ -4828,7 +4825,7 @@
         <v>223</v>
       </c>
       <c r="P126" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
@@ -4863,36 +4860,36 @@
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G130" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H130" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J130" t="s">
+        <v>337</v>
+      </c>
+      <c r="K130" t="s">
         <v>338</v>
       </c>
-      <c r="K130" t="s">
-        <v>339</v>
-      </c>
       <c r="P130" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
+        <v>256</v>
+      </c>
+      <c r="E131" t="s">
         <v>257</v>
       </c>
-      <c r="E131" t="s">
-        <v>258</v>
-      </c>
       <c r="F131" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I131" s="3"/>
     </row>
@@ -4901,11 +4898,11 @@
         <v>86</v>
       </c>
       <c r="C132" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I132" s="3"/>
       <c r="Q132" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.25">
@@ -4917,16 +4914,16 @@
       </c>
       <c r="I133" s="3"/>
       <c r="L133" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I134" s="3"/>
       <c r="Q134" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.25">
@@ -4938,7 +4935,7 @@
       </c>
       <c r="I135" s="3"/>
       <c r="L135" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.25">
@@ -4952,36 +4949,36 @@
         <v>21</v>
       </c>
       <c r="F137" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G137" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H137" t="s">
         <v>224</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J137" t="s">
+        <v>337</v>
+      </c>
+      <c r="K137" t="s">
         <v>338</v>
       </c>
-      <c r="K137" t="s">
-        <v>339</v>
-      </c>
       <c r="P137" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
+        <v>256</v>
+      </c>
+      <c r="E138" t="s">
         <v>257</v>
       </c>
-      <c r="E138" t="s">
-        <v>258</v>
-      </c>
       <c r="F138" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I138" s="3"/>
     </row>
@@ -4990,11 +4987,11 @@
         <v>86</v>
       </c>
       <c r="C139" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I139" s="3"/>
       <c r="Q139" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
@@ -5006,16 +5003,16 @@
       </c>
       <c r="I140" s="3"/>
       <c r="L140" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I141" s="3"/>
       <c r="Q141" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.25">
@@ -5027,7 +5024,7 @@
       </c>
       <c r="I142" s="3"/>
       <c r="L142" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.25">
@@ -5041,10 +5038,10 @@
         <v>86</v>
       </c>
       <c r="C144" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q144" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="145" spans="2:17" x14ac:dyDescent="0.25">
@@ -5052,36 +5049,36 @@
         <v>21</v>
       </c>
       <c r="F145" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G145" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H145" t="s">
         <v>226</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J145" t="s">
+        <v>337</v>
+      </c>
+      <c r="K145" t="s">
         <v>338</v>
       </c>
-      <c r="K145" t="s">
-        <v>339</v>
-      </c>
       <c r="P145" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
+        <v>256</v>
+      </c>
+      <c r="E146" t="s">
         <v>257</v>
       </c>
-      <c r="E146" t="s">
-        <v>258</v>
-      </c>
       <c r="F146" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I146" s="3"/>
     </row>
@@ -5090,11 +5087,11 @@
         <v>86</v>
       </c>
       <c r="C147" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I147" s="3"/>
       <c r="Q147" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="148" spans="2:17" x14ac:dyDescent="0.25">
@@ -5102,20 +5099,20 @@
         <v>153</v>
       </c>
       <c r="F148" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I148" s="3"/>
       <c r="L148" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I149" s="3"/>
       <c r="Q149" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.25">
@@ -5123,11 +5120,11 @@
         <v>153</v>
       </c>
       <c r="F150" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I150" s="3"/>
       <c r="L150" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.25">
@@ -5166,7 +5163,7 @@
         <v>216</v>
       </c>
       <c r="P155" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="156" spans="2:17" x14ac:dyDescent="0.25">
@@ -5183,7 +5180,7 @@
         <v>217</v>
       </c>
       <c r="P156" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="157" spans="2:17" x14ac:dyDescent="0.25">
@@ -5193,13 +5190,13 @@
     </row>
     <row r="158" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C158" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q158" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="159" spans="2:17" x14ac:dyDescent="0.25">
@@ -5226,7 +5223,7 @@
         <v>118</v>
       </c>
       <c r="H160" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="161" spans="2:17" x14ac:dyDescent="0.25">
@@ -5259,7 +5256,7 @@
         <v>86</v>
       </c>
       <c r="C162" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -5274,7 +5271,7 @@
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="163" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5298,7 +5295,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
       <c r="P163" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="164" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5312,7 +5309,7 @@
         <v>99</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -5322,7 +5319,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="165" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5346,7 +5343,7 @@
         <v>86</v>
       </c>
       <c r="C166" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -5365,7 +5362,7 @@
         <v>153</v>
       </c>
       <c r="F167" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -5373,7 +5370,7 @@
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
@@ -5393,7 +5390,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
@@ -5434,10 +5431,10 @@
     </row>
     <row r="171" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C171" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -5451,7 +5448,7 @@
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="172" spans="2:17" x14ac:dyDescent="0.25">
@@ -5479,7 +5476,7 @@
         <v>119</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -5501,10 +5498,10 @@
         <v>94</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -5520,7 +5517,7 @@
         <v>86</v>
       </c>
       <c r="C175" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -5535,7 +5532,7 @@
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="176" spans="2:17" x14ac:dyDescent="0.25">
@@ -5559,7 +5556,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
       <c r="P176" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
@@ -5573,7 +5570,7 @@
         <v>99</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -5583,7 +5580,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
       <c r="P177" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
@@ -5607,7 +5604,7 @@
         <v>86</v>
       </c>
       <c r="C179" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -5626,7 +5623,7 @@
         <v>153</v>
       </c>
       <c r="F180" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -5634,7 +5631,7 @@
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
@@ -5654,7 +5651,7 @@
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
@@ -5684,7 +5681,7 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B184" t="s">
         <v>19</v>
@@ -5698,13 +5695,13 @@
         <v>80</v>
       </c>
       <c r="F185" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G185" t="s">
         <v>85</v>
       </c>
       <c r="H185" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.25">
@@ -5712,10 +5709,10 @@
         <v>86</v>
       </c>
       <c r="C186" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="Q186" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
@@ -5734,7 +5731,7 @@
         <v>153</v>
       </c>
       <c r="F188" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -5742,7 +5739,7 @@
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
@@ -5759,10 +5756,10 @@
         <v>86</v>
       </c>
       <c r="C190" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="Q190" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
@@ -5773,13 +5770,13 @@
         <v>79</v>
       </c>
       <c r="F191" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G191" t="s">
         <v>152</v>
       </c>
       <c r="H191" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
@@ -5797,10 +5794,10 @@
         <v>86</v>
       </c>
       <c r="C194" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="Q194" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="195" spans="2:17" x14ac:dyDescent="0.25">
@@ -5813,10 +5810,10 @@
         <v>153</v>
       </c>
       <c r="F196" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L196" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="197" spans="2:17" x14ac:dyDescent="0.25">
@@ -5824,22 +5821,22 @@
         <v>133</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
@@ -5850,7 +5847,7 @@
     </row>
     <row r="198" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E198" t="s">
         <v>164</v>
@@ -5875,7 +5872,7 @@
         <v>86</v>
       </c>
       <c r="C199" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -5889,7 +5886,7 @@
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="200" spans="2:17" x14ac:dyDescent="0.25">
@@ -5905,7 +5902,7 @@
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
@@ -5915,7 +5912,7 @@
     </row>
     <row r="201" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -5929,7 +5926,7 @@
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
       <c r="Q201" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="202" spans="2:17" x14ac:dyDescent="0.25">
@@ -5945,7 +5942,7 @@
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
@@ -5975,22 +5972,22 @@
         <v>133</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G204" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H204" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="I204" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
@@ -6001,10 +5998,10 @@
     </row>
     <row r="205" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E205" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F205" t="s">
         <v>171</v>
@@ -6015,10 +6012,10 @@
         <v>86</v>
       </c>
       <c r="C206" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q206" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="207" spans="2:17" x14ac:dyDescent="0.25">
@@ -6026,14 +6023,14 @@
         <v>153</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
@@ -6062,7 +6059,7 @@
         <v>86</v>
       </c>
       <c r="C209" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
@@ -6075,7 +6072,7 @@
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
       <c r="Q209" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="210" spans="2:17" x14ac:dyDescent="0.25">
@@ -6090,7 +6087,7 @@
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
@@ -6100,7 +6097,7 @@
     </row>
     <row r="211" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -6113,7 +6110,7 @@
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
       <c r="Q211" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="212" spans="2:17" x14ac:dyDescent="0.25">
@@ -6128,7 +6125,7 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
@@ -6179,22 +6176,22 @@
         <v>133</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
@@ -6205,7 +6202,7 @@
     </row>
     <row r="217" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E217" t="s">
         <v>164</v>
@@ -6230,7 +6227,7 @@
         <v>86</v>
       </c>
       <c r="C218" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
@@ -6244,7 +6241,7 @@
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
       <c r="Q218" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="219" spans="2:17" x14ac:dyDescent="0.25">
@@ -6260,7 +6257,7 @@
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
@@ -6270,7 +6267,7 @@
     </row>
     <row r="220" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -6284,7 +6281,7 @@
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
       <c r="Q220" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="221" spans="2:17" x14ac:dyDescent="0.25">
@@ -6300,7 +6297,7 @@
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
       <c r="L221" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
@@ -6330,22 +6327,22 @@
         <v>133</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G223" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H223" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H223" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="I223" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
@@ -6356,10 +6353,10 @@
     </row>
     <row r="224" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E224" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>172</v>
@@ -6370,10 +6367,10 @@
         <v>86</v>
       </c>
       <c r="C225" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q225" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="226" spans="2:17" x14ac:dyDescent="0.25">
@@ -6381,14 +6378,14 @@
         <v>153</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
       <c r="L226" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
@@ -6417,7 +6414,7 @@
         <v>86</v>
       </c>
       <c r="C228" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -6430,7 +6427,7 @@
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
       <c r="Q228" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="229" spans="2:17" x14ac:dyDescent="0.25">
@@ -6445,7 +6442,7 @@
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
       <c r="L229" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
@@ -6455,7 +6452,7 @@
     </row>
     <row r="230" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -6468,7 +6465,7 @@
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
       <c r="Q230" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="231" spans="2:17" x14ac:dyDescent="0.25">
@@ -6483,7 +6480,7 @@
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
       <c r="L231" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
@@ -6513,22 +6510,22 @@
         <v>133</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G233" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H233" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H233" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="I233" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
@@ -6538,10 +6535,10 @@
     </row>
     <row r="234" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E234" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>175</v>
@@ -6552,10 +6549,10 @@
         <v>86</v>
       </c>
       <c r="C235" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q235" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="236" spans="2:17" x14ac:dyDescent="0.25">
@@ -6563,14 +6560,14 @@
         <v>153</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
       <c r="L236" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
@@ -6599,7 +6596,7 @@
         <v>86</v>
       </c>
       <c r="C238" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
@@ -6612,7 +6609,7 @@
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
       <c r="Q238" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="239" spans="2:17" x14ac:dyDescent="0.25">
@@ -6627,7 +6624,7 @@
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
       <c r="L239" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
@@ -6637,7 +6634,7 @@
     </row>
     <row r="240" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -6650,7 +6647,7 @@
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
       <c r="Q240" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="241" spans="2:17" x14ac:dyDescent="0.25">
@@ -6665,7 +6662,7 @@
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
       <c r="L241" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
@@ -6695,22 +6692,22 @@
         <v>133</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G243" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H243" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H243" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="I243" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
@@ -6720,10 +6717,10 @@
     </row>
     <row r="244" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E244" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>178</v>
@@ -6734,10 +6731,10 @@
         <v>86</v>
       </c>
       <c r="C245" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q245" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="246" spans="2:17" x14ac:dyDescent="0.25">
@@ -6745,14 +6742,14 @@
         <v>153</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
       <c r="L246" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
@@ -6781,7 +6778,7 @@
         <v>86</v>
       </c>
       <c r="C248" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
@@ -6794,7 +6791,7 @@
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
       <c r="Q248" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="249" spans="2:17" x14ac:dyDescent="0.25">
@@ -6809,7 +6806,7 @@
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
@@ -6819,7 +6816,7 @@
     </row>
     <row r="250" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
@@ -6832,7 +6829,7 @@
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
       <c r="Q250" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="251" spans="2:17" x14ac:dyDescent="0.25">
@@ -6847,7 +6844,7 @@
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
       <c r="L251" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
@@ -6887,22 +6884,22 @@
         <v>133</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>127</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
@@ -6913,7 +6910,7 @@
     </row>
     <row r="256" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E256" t="s">
         <v>164</v>
@@ -6938,7 +6935,7 @@
         <v>86</v>
       </c>
       <c r="C257" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
@@ -6952,7 +6949,7 @@
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
       <c r="Q257" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="258" spans="2:17" x14ac:dyDescent="0.25">
@@ -6968,7 +6965,7 @@
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
       <c r="L258" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
@@ -6978,7 +6975,7 @@
     </row>
     <row r="259" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
@@ -6992,7 +6989,7 @@
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
       <c r="Q259" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="260" spans="2:17" x14ac:dyDescent="0.25">
@@ -7008,7 +7005,7 @@
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
       <c r="L260" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
@@ -7038,22 +7035,22 @@
         <v>133</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G262" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H262" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H262" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="I262" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L262" s="1"/>
       <c r="M262" s="1"/>
@@ -7064,10 +7061,10 @@
     </row>
     <row r="263" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E263" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>173</v>
@@ -7078,10 +7075,10 @@
         <v>86</v>
       </c>
       <c r="C264" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q264" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="265" spans="2:17" x14ac:dyDescent="0.25">
@@ -7089,14 +7086,14 @@
         <v>153</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
       <c r="L265" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
@@ -7125,7 +7122,7 @@
         <v>86</v>
       </c>
       <c r="C267" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
@@ -7138,7 +7135,7 @@
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
       <c r="Q267" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="268" spans="2:17" x14ac:dyDescent="0.25">
@@ -7153,7 +7150,7 @@
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
       <c r="L268" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
@@ -7163,7 +7160,7 @@
     </row>
     <row r="269" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
@@ -7176,7 +7173,7 @@
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
       <c r="Q269" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="270" spans="2:17" x14ac:dyDescent="0.25">
@@ -7191,7 +7188,7 @@
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
       <c r="L270" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
@@ -7221,22 +7218,22 @@
         <v>133</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L272" s="1"/>
       <c r="M272" s="1"/>
@@ -7246,10 +7243,10 @@
     </row>
     <row r="273" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E273" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>176</v>
@@ -7260,10 +7257,10 @@
         <v>86</v>
       </c>
       <c r="C274" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q274" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="275" spans="2:17" x14ac:dyDescent="0.25">
@@ -7271,14 +7268,14 @@
         <v>153</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
       <c r="L275" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
@@ -7307,7 +7304,7 @@
         <v>86</v>
       </c>
       <c r="C277" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
@@ -7320,7 +7317,7 @@
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
       <c r="Q277" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="278" spans="2:17" x14ac:dyDescent="0.25">
@@ -7335,7 +7332,7 @@
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
       <c r="L278" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
@@ -7345,7 +7342,7 @@
     </row>
     <row r="279" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
@@ -7358,7 +7355,7 @@
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
       <c r="Q279" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="280" spans="2:17" x14ac:dyDescent="0.25">
@@ -7373,7 +7370,7 @@
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
       <c r="L280" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
@@ -7403,22 +7400,22 @@
         <v>133</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G282" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H282" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H282" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="I282" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L282" s="1"/>
       <c r="M282" s="1"/>
@@ -7428,10 +7425,10 @@
     </row>
     <row r="283" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E283" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>179</v>
@@ -7442,10 +7439,10 @@
         <v>86</v>
       </c>
       <c r="C284" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q284" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="285" spans="2:17" x14ac:dyDescent="0.25">
@@ -7453,14 +7450,14 @@
         <v>153</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
       <c r="L285" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
@@ -7489,7 +7486,7 @@
         <v>86</v>
       </c>
       <c r="C287" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
@@ -7502,7 +7499,7 @@
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
       <c r="Q287" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="288" spans="2:17" x14ac:dyDescent="0.25">
@@ -7517,7 +7514,7 @@
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
       <c r="L288" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
@@ -7527,7 +7524,7 @@
     </row>
     <row r="289" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
@@ -7540,7 +7537,7 @@
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
       <c r="Q289" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="290" spans="2:17" x14ac:dyDescent="0.25">
@@ -7555,7 +7552,7 @@
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
       <c r="L290" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
@@ -7595,22 +7592,22 @@
         <v>133</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G294" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>128</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L294" s="1"/>
       <c r="M294" s="1"/>
@@ -7621,7 +7618,7 @@
     </row>
     <row r="295" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E295" t="s">
         <v>164</v>
@@ -7646,7 +7643,7 @@
         <v>86</v>
       </c>
       <c r="C296" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
@@ -7660,7 +7657,7 @@
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
       <c r="Q296" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="297" spans="2:17" x14ac:dyDescent="0.25">
@@ -7676,7 +7673,7 @@
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
       <c r="L297" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
@@ -7686,7 +7683,7 @@
     </row>
     <row r="298" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
@@ -7700,7 +7697,7 @@
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
       <c r="Q298" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="299" spans="2:17" x14ac:dyDescent="0.25">
@@ -7716,7 +7713,7 @@
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
       <c r="L299" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
@@ -7746,22 +7743,22 @@
         <v>133</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K301" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L301" s="1"/>
       <c r="M301" s="1"/>
@@ -7772,10 +7769,10 @@
     </row>
     <row r="302" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D302" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E302" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>174</v>
@@ -7786,10 +7783,10 @@
         <v>86</v>
       </c>
       <c r="C303" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q303" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="304" spans="2:17" x14ac:dyDescent="0.25">
@@ -7797,14 +7794,14 @@
         <v>153</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
       <c r="L304" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
@@ -7833,7 +7830,7 @@
         <v>86</v>
       </c>
       <c r="C306" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
@@ -7846,7 +7843,7 @@
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
       <c r="Q306" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="307" spans="2:17" x14ac:dyDescent="0.25">
@@ -7861,7 +7858,7 @@
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
       <c r="L307" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
@@ -7871,7 +7868,7 @@
     </row>
     <row r="308" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
@@ -7884,7 +7881,7 @@
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
       <c r="Q308" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="309" spans="2:17" x14ac:dyDescent="0.25">
@@ -7899,7 +7896,7 @@
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
       <c r="L309" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
@@ -7929,22 +7926,22 @@
         <v>133</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L311" s="1"/>
       <c r="M311" s="1"/>
@@ -7954,10 +7951,10 @@
     </row>
     <row r="312" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E312" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>177</v>
@@ -7968,10 +7965,10 @@
         <v>86</v>
       </c>
       <c r="C313" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q313" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="314" spans="2:17" x14ac:dyDescent="0.25">
@@ -7979,14 +7976,14 @@
         <v>153</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
       <c r="L314" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
@@ -8015,7 +8012,7 @@
         <v>86</v>
       </c>
       <c r="C316" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
@@ -8028,7 +8025,7 @@
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
       <c r="Q316" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="317" spans="2:17" x14ac:dyDescent="0.25">
@@ -8043,7 +8040,7 @@
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
       <c r="L317" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
@@ -8053,7 +8050,7 @@
     </row>
     <row r="318" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
@@ -8066,7 +8063,7 @@
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
       <c r="Q318" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="319" spans="2:17" x14ac:dyDescent="0.25">
@@ -8081,7 +8078,7 @@
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
       <c r="L319" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
@@ -8111,22 +8108,22 @@
         <v>133</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G321" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K321" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L321" s="1"/>
       <c r="M321" s="1"/>
@@ -8136,10 +8133,10 @@
     </row>
     <row r="322" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D322" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E322" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>180</v>
@@ -8150,10 +8147,10 @@
         <v>86</v>
       </c>
       <c r="C323" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q323" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="324" spans="2:17" x14ac:dyDescent="0.25">
@@ -8161,14 +8158,14 @@
         <v>153</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
       <c r="L324" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
@@ -8197,7 +8194,7 @@
         <v>86</v>
       </c>
       <c r="C326" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
@@ -8210,7 +8207,7 @@
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
       <c r="Q326" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="327" spans="2:17" x14ac:dyDescent="0.25">
@@ -8225,7 +8222,7 @@
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
       <c r="L327" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
@@ -8235,7 +8232,7 @@
     </row>
     <row r="328" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
@@ -8248,7 +8245,7 @@
       <c r="O328" s="1"/>
       <c r="P328" s="1"/>
       <c r="Q328" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="329" spans="2:17" x14ac:dyDescent="0.25">
@@ -8263,7 +8260,7 @@
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
@@ -8303,22 +8300,22 @@
         <v>133</v>
       </c>
       <c r="F333" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I333" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="G333" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="H333" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I333" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="J333" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K333" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L333" s="1"/>
       <c r="M333" s="1"/>
@@ -8329,7 +8326,7 @@
     </row>
     <row r="334" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E334" t="s">
         <v>164</v>
@@ -8354,7 +8351,7 @@
         <v>86</v>
       </c>
       <c r="C335" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
@@ -8368,7 +8365,7 @@
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
       <c r="Q335" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="336" spans="2:17" x14ac:dyDescent="0.25">
@@ -8384,7 +8381,7 @@
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
       <c r="L336" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
@@ -8394,7 +8391,7 @@
     </row>
     <row r="337" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
@@ -8408,7 +8405,7 @@
       <c r="O337" s="1"/>
       <c r="P337" s="1"/>
       <c r="Q337" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="338" spans="2:17" x14ac:dyDescent="0.25">
@@ -8424,7 +8421,7 @@
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
       <c r="L338" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
@@ -8454,22 +8451,22 @@
         <v>133</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J340" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K340" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L340" s="1"/>
       <c r="M340" s="1"/>
@@ -8479,10 +8476,10 @@
     </row>
     <row r="341" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D341" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E341" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>181</v>
@@ -8493,10 +8490,10 @@
         <v>86</v>
       </c>
       <c r="C342" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q342" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="343" spans="2:17" x14ac:dyDescent="0.25">
@@ -8504,14 +8501,14 @@
         <v>153</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
       <c r="L343" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
@@ -8540,7 +8537,7 @@
         <v>86</v>
       </c>
       <c r="C345" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
@@ -8553,7 +8550,7 @@
       <c r="O345" s="1"/>
       <c r="P345" s="1"/>
       <c r="Q345" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="346" spans="2:17" x14ac:dyDescent="0.25">
@@ -8568,7 +8565,7 @@
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
       <c r="L346" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
@@ -8578,7 +8575,7 @@
     </row>
     <row r="347" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
@@ -8591,7 +8588,7 @@
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
       <c r="Q347" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="348" spans="2:17" x14ac:dyDescent="0.25">
@@ -8606,7 +8603,7 @@
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
       <c r="L348" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
@@ -8657,15 +8654,15 @@
         <v>86</v>
       </c>
       <c r="C352" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Q352" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B353" t="s">
         <v>19</v>
@@ -8676,10 +8673,10 @@
         <v>153</v>
       </c>
       <c r="F354" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L354" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
@@ -8687,16 +8684,16 @@
         <v>9</v>
       </c>
       <c r="E355" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F355" t="s">
         <v>40</v>
       </c>
       <c r="G355" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H355" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
@@ -8704,16 +8701,16 @@
         <v>9</v>
       </c>
       <c r="E356" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G356" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H356" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
@@ -8731,16 +8728,16 @@
         <v>9</v>
       </c>
       <c r="E359" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F359" t="s">
         <v>47</v>
       </c>
       <c r="G359" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H359" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
@@ -8748,16 +8745,16 @@
         <v>9</v>
       </c>
       <c r="E360" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F360" t="s">
         <v>48</v>
       </c>
       <c r="G360" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H360" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
@@ -8765,16 +8762,16 @@
         <v>9</v>
       </c>
       <c r="E361" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F361" t="s">
         <v>49</v>
       </c>
       <c r="G361" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H361" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
@@ -8792,16 +8789,16 @@
         <v>9</v>
       </c>
       <c r="E364" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G364" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H364" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
@@ -8809,16 +8806,16 @@
         <v>9</v>
       </c>
       <c r="E365" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F365" t="s">
         <v>45</v>
       </c>
       <c r="G365" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H365" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
@@ -8826,16 +8823,16 @@
         <v>9</v>
       </c>
       <c r="E366" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F366" t="s">
         <v>46</v>
       </c>
       <c r="G366" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H366" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
@@ -8853,16 +8850,16 @@
         <v>9</v>
       </c>
       <c r="E369" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F369" t="s">
         <v>50</v>
       </c>
       <c r="G369" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H369" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.25">
@@ -8870,16 +8867,16 @@
         <v>9</v>
       </c>
       <c r="E370" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F370" t="s">
         <v>51</v>
       </c>
       <c r="G370" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H370" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="371" spans="1:16" x14ac:dyDescent="0.25">
@@ -8887,16 +8884,16 @@
         <v>9</v>
       </c>
       <c r="E371" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G371" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H371" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="372" spans="1:16" x14ac:dyDescent="0.25">
@@ -8914,16 +8911,16 @@
         <v>9</v>
       </c>
       <c r="E374" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G374" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H374" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="375" spans="1:16" x14ac:dyDescent="0.25">
@@ -8931,16 +8928,16 @@
         <v>9</v>
       </c>
       <c r="E375" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G375" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H375" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="376" spans="1:16" x14ac:dyDescent="0.25">
@@ -8958,16 +8955,16 @@
         <v>9</v>
       </c>
       <c r="E378" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G378" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H378" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="379" spans="1:16" x14ac:dyDescent="0.25">
@@ -8975,16 +8972,16 @@
         <v>9</v>
       </c>
       <c r="E379" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="380" spans="1:16" x14ac:dyDescent="0.25">
@@ -8992,16 +8989,16 @@
         <v>9</v>
       </c>
       <c r="E380" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G380" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="H380" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="381" spans="1:16" x14ac:dyDescent="0.25">
@@ -9044,10 +9041,10 @@
         <v>107</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H384" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
@@ -9088,7 +9085,7 @@
         <v>153</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
@@ -9108,7 +9105,7 @@
         <v>86</v>
       </c>
       <c r="C387" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
@@ -9127,7 +9124,7 @@
         <v>153</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
@@ -9135,7 +9132,7 @@
       <c r="J388" s="1"/>
       <c r="K388" s="1"/>
       <c r="L388" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
@@ -9401,8 +9398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9439,7 +9436,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9454,7 +9451,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -9469,7 +9466,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9484,7 +9481,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -9499,7 +9496,7 @@
         <v>137</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -9514,7 +9511,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -9529,7 +9526,7 @@
         <v>116</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -9541,10 +9538,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -9556,10 +9553,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -9571,10 +9568,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -9586,10 +9583,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -9618,7 +9615,7 @@
         <v>155</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -9626,13 +9623,13 @@
         <v>80</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -9640,13 +9637,13 @@
         <v>80</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9660,7 +9657,7 @@
         <v>156</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9674,7 +9671,7 @@
         <v>157</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9682,13 +9679,13 @@
         <v>80</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9699,10 +9696,10 @@
         <v>84</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9714,10 +9711,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9729,10 +9726,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9744,10 +9741,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9759,10 +9756,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -9774,10 +9771,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9789,10 +9786,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -9804,10 +9801,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -9819,10 +9816,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9834,10 +9831,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -9849,10 +9846,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -9864,10 +9861,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -9879,10 +9876,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9894,10 +9891,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9912,7 +9909,7 @@
         <v>116</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -9927,7 +9924,7 @@
         <v>85</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -9939,10 +9936,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -9962,7 +9959,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>139</v>
@@ -9976,7 +9973,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>141</v>
@@ -9990,7 +9987,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>193</v>
@@ -10004,7 +10001,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>142</v>
@@ -10018,7 +10015,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>143</v>
@@ -10032,7 +10029,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>144</v>
@@ -10046,13 +10043,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>186</v>
@@ -10060,7 +10057,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>147</v>
@@ -10074,21 +10071,21 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>116</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>188</v>
@@ -10102,63 +10099,63 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>385</v>
-      </c>
       <c r="D49" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>191</v>
@@ -10172,41 +10169,41 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>378</v>
-      </c>
       <c r="D54" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>194</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>195</v>
@@ -10214,35 +10211,35 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>382</v>
-      </c>
       <c r="D57" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>196</v>
@@ -10256,21 +10253,21 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>389</v>
-      </c>
       <c r="D59" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>147</v>
@@ -10279,21 +10276,21 @@
         <v>187</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -10301,13 +10298,13 @@
         <v>164</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>170</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -10315,13 +10312,13 @@
         <v>164</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -10329,62 +10326,62 @@
         <v>164</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B65" s="7" t="str">
         <f>"111111111"</f>
         <v>111111111</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B66" s="7" t="str">
         <f>"999999999"</f>
         <v>999999999</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>188</v>
@@ -10398,21 +10395,21 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>159</v>
@@ -10426,21 +10423,21 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>160</v>
@@ -10454,161 +10451,161 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>147</v>
@@ -10622,392 +10619,392 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B85" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="D85" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>170</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>294</v>
-      </c>
       <c r="D97" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>170</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="D101" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
         <v>99999</v>
       </c>
       <c r="C105" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B106" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B107" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B108" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B109" s="7" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B110" s="7" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B111" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B112" s="7" t="str">
         <f>"999"</f>
@@ -11017,12 +11014,12 @@
         <v>116</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B113" s="5" t="str">
         <f>"11"</f>
@@ -11039,7 +11036,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B114" s="5" t="str">
         <f>"12"</f>
@@ -11056,7 +11053,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B115" s="5" t="str">
         <f>"13"</f>
@@ -11073,7 +11070,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B116" s="5" t="str">
         <f>"14"</f>
@@ -11090,7 +11087,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B117" s="5" t="str">
         <f>"15"</f>
@@ -11107,7 +11104,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B118" s="5" t="str">
         <f>"16"</f>
@@ -11124,7 +11121,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B119" s="5" t="str">
         <f>"17"</f>
@@ -11141,7 +11138,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B120" s="5" t="str">
         <f>"18"</f>
@@ -11158,7 +11155,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B121" s="5" t="str">
         <f>"19"</f>
@@ -11175,7 +11172,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B122" s="5" t="str">
         <f>"999"</f>
@@ -11185,12 +11182,12 @@
         <v>116</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B123" s="7" t="str">
         <f>"21"</f>
@@ -11207,7 +11204,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B124" s="7" t="str">
         <f>"22"</f>
@@ -11224,7 +11221,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B125" s="7" t="str">
         <f>"23"</f>
@@ -11241,7 +11238,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B126" s="7" t="str">
         <f t="shared" ref="B126:D127" si="0">"24"</f>
@@ -11258,7 +11255,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B127" s="7" t="str">
         <f t="shared" si="0"/>
@@ -11275,7 +11272,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B128" s="7" t="str">
         <f>"25"</f>
@@ -11292,7 +11289,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B129" s="7" t="str">
         <f>"26"</f>
@@ -11309,7 +11306,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B130" s="7" t="str">
         <f>"27"</f>
@@ -11326,7 +11323,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B131" s="7" t="str">
         <f>"28"</f>
@@ -11343,7 +11340,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B132" s="7" t="str">
         <f>"999"</f>
@@ -11353,12 +11350,12 @@
         <v>116</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B133" s="5" t="str">
         <f>"31"</f>
@@ -11375,7 +11372,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B134" s="5" t="str">
         <f>"32"</f>
@@ -11392,7 +11389,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B135" s="5" t="str">
         <f>"33"</f>
@@ -11409,7 +11406,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B136" s="5" t="str">
         <f>"34"</f>
@@ -11426,7 +11423,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B137" s="5" t="str">
         <f>"35"</f>
@@ -11443,7 +11440,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B138" s="5" t="str">
         <f>"999"</f>
@@ -11453,12 +11450,12 @@
         <v>116</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B139" s="7" t="str">
         <f>"42"</f>
@@ -11475,7 +11472,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B140" s="7" t="str">
         <f>"43"</f>
@@ -11492,7 +11489,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B141" s="7" t="str">
         <f>"44"</f>
@@ -11509,7 +11506,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B142" s="7" t="str">
         <f>"999"</f>
@@ -11519,12 +11516,12 @@
         <v>116</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B143" s="5" t="str">
         <f>"71"</f>
@@ -11541,7 +11538,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B144" s="5" t="str">
         <f>"72"</f>
@@ -11558,7 +11555,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B145" s="5" t="str">
         <f>"73"</f>
@@ -11575,7 +11572,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B146" s="5" t="str">
         <f>"74"</f>
@@ -11592,7 +11589,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B147" s="5" t="str">
         <f>"75"</f>
@@ -11609,7 +11606,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B148" s="5" t="str">
         <f>"76"</f>
@@ -11626,7 +11623,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B149" s="5" t="str">
         <f>"77"</f>
@@ -11643,7 +11640,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B150" s="5" t="str">
         <f>"78"</f>
@@ -11660,7 +11657,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B151" s="5" t="str">
         <f>"79"</f>
@@ -11677,7 +11674,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B152" s="5" t="str">
         <f>"999"</f>
@@ -11687,12 +11684,12 @@
         <v>116</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B153" s="7" t="str">
         <f>"92"</f>
@@ -11709,7 +11706,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B154" s="7" t="str">
         <f>"93"</f>
@@ -11726,7 +11723,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B155" s="7" t="str">
         <f>"94"</f>
@@ -11743,7 +11740,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B156" s="7" t="str">
         <f>"999"</f>
@@ -11753,199 +11750,199 @@
         <v>116</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B157" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B158" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B159" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B160" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B161" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B162" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B163" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B164" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B165" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B166" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>438</v>
+        <v>870</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>438</v>
+        <v>870</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C168" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="B168" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>441</v>
-      </c>
       <c r="D168" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -11960,612 +11957,612 @@
         <v>116</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B174" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B175" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B176" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B177" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B178" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B179" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B180" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B181" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B182" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B183" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B185" s="5" t="str">
         <f>"55"</f>
         <v>55</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B186" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B187" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B188" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B204" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B207" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B208" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -12575,124 +12572,124 @@
         <v>116</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="B213" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="B213" s="5" t="s">
-        <v>703</v>
-      </c>
       <c r="C213" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>146</v>
@@ -12701,41 +12698,41 @@
         <v>116</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="25" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -12745,217 +12742,217 @@
         <v>116</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B225" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B226" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D226" s="27" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B227" s="5" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D227" s="27" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B228" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D228" s="27" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B229" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D229" s="27" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B230" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D230" s="27" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B231" s="5" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D231" s="27" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B232" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D232" s="27" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B233" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D233" s="27" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B234" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D234" s="27" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B235" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D235" s="27" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B236" s="5" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D236" s="27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B237" s="5" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B238" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D238" s="27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -12987,7 +12984,7 @@
         <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12995,10 +12992,10 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -13032,7 +13029,7 @@
         <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -13046,7 +13043,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -13078,7 +13075,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
@@ -13097,7 +13094,7 @@
     </row>
     <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>91</v>
@@ -13108,7 +13105,7 @@
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>91</v>
@@ -13174,7 +13171,7 @@
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>21</v>
@@ -13185,7 +13182,7 @@
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>21</v>
@@ -29576,7 +29573,7 @@
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>8</v>
@@ -46068,7 +46065,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>8</v>
@@ -46079,7 +46076,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>8</v>
@@ -46090,7 +46087,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>8</v>
@@ -46101,7 +46098,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>91</v>
@@ -46167,7 +46164,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>8</v>
@@ -46277,7 +46274,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>9</v>
@@ -46288,7 +46285,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>91</v>
@@ -46299,7 +46296,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>8</v>
@@ -46332,7 +46329,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>21</v>
@@ -46354,7 +46351,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>8</v>
@@ -46365,7 +46362,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>9</v>
@@ -46398,7 +46395,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>21</v>
@@ -46431,7 +46428,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>9</v>
@@ -46453,7 +46450,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>8</v>
@@ -46464,7 +46461,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>8</v>
@@ -46618,7 +46615,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>8</v>
@@ -46640,7 +46637,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>8</v>
@@ -46662,7 +46659,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>8</v>
@@ -46673,10 +46670,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C77" s="15" t="b">
         <v>1</v>
@@ -46684,10 +46681,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C78" s="15" t="b">
         <v>1</v>
@@ -46695,7 +46692,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>91</v>
@@ -46706,7 +46703,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>91</v>
@@ -46720,7 +46717,7 @@
         <v>134</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="15" t="b">
         <v>1</v>
@@ -46731,7 +46728,7 @@
         <v>171</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C82" s="15" t="b">
         <v>1</v>
@@ -46739,7 +46736,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>133</v>
@@ -46753,7 +46750,7 @@
         <v>178</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C84" s="15" t="b">
         <v>1</v>
@@ -46761,7 +46758,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>133</v>
@@ -46775,7 +46772,7 @@
         <v>179</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C86" s="15" t="b">
         <v>1</v>
@@ -46783,7 +46780,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>133</v>
@@ -46794,10 +46791,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C88" s="15" t="b">
         <v>1</v>
@@ -46805,7 +46802,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>91</v>
@@ -46816,7 +46813,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B90" s="15" t="s">
         <v>91</v>
@@ -46827,7 +46824,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>91</v>
@@ -46838,7 +46835,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B92" s="15" t="s">
         <v>91</v>
@@ -46849,7 +46846,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>91</v>
@@ -46860,7 +46857,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>91</v>
@@ -46871,7 +46868,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>91</v>
@@ -46882,7 +46879,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>21</v>
@@ -46893,10 +46890,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C97" s="15" t="b">
         <v>1</v>
@@ -46904,7 +46901,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>21</v>
@@ -46915,10 +46912,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C99" s="15" t="b">
         <v>1</v>
@@ -46926,7 +46923,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>21</v>
@@ -46937,10 +46934,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C101" s="15" t="b">
         <v>1</v>
@@ -46951,7 +46948,7 @@
         <v>166</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C102" s="15" t="b">
         <v>1</v>
@@ -46959,7 +46956,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>133</v>
@@ -46973,7 +46970,7 @@
         <v>181</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C104" s="15" t="b">
         <v>1</v>
@@ -46981,7 +46978,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>133</v>
@@ -46995,7 +46992,7 @@
         <v>172</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C106" s="15" t="b">
         <v>1</v>
@@ -47003,7 +47000,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B107" s="15" t="s">
         <v>133</v>
@@ -47017,7 +47014,7 @@
         <v>173</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C108" s="15" t="b">
         <v>1</v>
@@ -47025,7 +47022,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>133</v>
@@ -47039,7 +47036,7 @@
         <v>174</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C110" s="15" t="b">
         <v>1</v>
@@ -47047,7 +47044,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>133</v>
@@ -47061,7 +47058,7 @@
         <v>175</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C112" s="15" t="b">
         <v>1</v>
@@ -47069,7 +47066,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>133</v>
@@ -47083,7 +47080,7 @@
         <v>176</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C114" s="15" t="b">
         <v>1</v>
@@ -47091,7 +47088,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>133</v>
@@ -47105,7 +47102,7 @@
         <v>177</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C116" s="15" t="b">
         <v>1</v>
@@ -47113,7 +47110,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>133</v>
@@ -47127,7 +47124,7 @@
         <v>167</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C118" s="15" t="b">
         <v>1</v>
@@ -47135,7 +47132,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B119" s="15" t="s">
         <v>133</v>
@@ -47149,7 +47146,7 @@
         <v>168</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C120" s="15" t="b">
         <v>1</v>
@@ -47157,7 +47154,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>133</v>
@@ -47171,7 +47168,7 @@
         <v>169</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C122" s="15" t="b">
         <v>1</v>
@@ -47179,7 +47176,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>133</v>
@@ -47193,7 +47190,7 @@
         <v>180</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C124" s="15" t="b">
         <v>1</v>
@@ -47201,7 +47198,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B125" s="15" t="s">
         <v>133</v>
@@ -47215,7 +47212,7 @@
         <v>182</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C126" s="15" t="b">
         <v>1</v>
@@ -47223,7 +47220,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B127" s="15" t="s">
         <v>133</v>
@@ -47234,7 +47231,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>9</v>
@@ -47245,7 +47242,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>8</v>
@@ -47256,7 +47253,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>8</v>
@@ -47267,7 +47264,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>8</v>
@@ -47278,10 +47275,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C132" s="18" t="b">
         <v>1</v>
@@ -47289,10 +47286,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C133" s="18" t="b">
         <v>1</v>
@@ -47300,10 +47297,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C134" s="18" t="b">
         <v>1</v>
@@ -47311,7 +47308,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B135" s="28" t="s">
         <v>91</v>
@@ -47322,7 +47319,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="29" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B136" s="29" t="s">
         <v>91</v>
@@ -47333,7 +47330,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B137" s="23" t="s">
         <v>21</v>
@@ -47344,7 +47341,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="23" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B138" s="23" t="s">
         <v>8</v>
@@ -47355,7 +47352,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B139" s="23" t="s">
         <v>8</v>
@@ -47366,7 +47363,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="23" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B140" s="23" t="s">
         <v>9</v>
@@ -47377,7 +47374,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="23" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B141" s="23" t="s">
         <v>9</v>
@@ -47388,7 +47385,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="23" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B142" s="23" t="s">
         <v>9</v>
@@ -47399,10 +47396,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="24" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C143" s="24" t="b">
         <v>1</v>
@@ -47410,7 +47407,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="24" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B144" s="24" t="s">
         <v>9</v>
@@ -47421,7 +47418,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="24" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B145" s="24" t="s">
         <v>9</v>
@@ -47432,7 +47429,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B146" s="21" t="s">
         <v>91</v>
@@ -47443,7 +47440,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B147" s="21" t="s">
         <v>8</v>
@@ -47454,7 +47451,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B148" s="21" t="s">
         <v>9</v>
@@ -47465,7 +47462,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>8</v>
@@ -47476,7 +47473,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>8</v>
@@ -47487,7 +47484,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B151" s="19" t="s">
         <v>8</v>
@@ -47498,7 +47495,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>8</v>
@@ -47509,7 +47506,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>21</v>
@@ -47520,7 +47517,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>21</v>
@@ -47531,7 +47528,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>21</v>
@@ -47542,7 +47539,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>21</v>
@@ -47553,7 +47550,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>100</v>
@@ -47564,7 +47561,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>21</v>
@@ -47575,7 +47572,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>21</v>
@@ -47586,7 +47583,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>21</v>
@@ -47597,7 +47594,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>133</v>
@@ -47608,7 +47605,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>8</v>
@@ -47619,7 +47616,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>91</v>
@@ -47630,7 +47627,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B164" s="19" t="s">
         <v>91</v>
@@ -47641,7 +47638,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="19" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B165" s="19" t="s">
         <v>21</v>
@@ -47652,10 +47649,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C166" s="10" t="b">
         <v>1</v>
@@ -47663,10 +47660,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C167" s="10" t="b">
         <v>1</v>
@@ -47674,10 +47671,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C168" s="10" t="b">
         <v>1</v>
@@ -47685,10 +47682,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C169" s="10" t="b">
         <v>1</v>
@@ -47696,7 +47693,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -47707,10 +47704,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C171" s="10" t="b">
         <v>1</v>
@@ -47718,10 +47715,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C172" s="10" t="b">
         <v>1</v>
@@ -47729,10 +47726,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C173" s="10" t="b">
         <v>1</v>
@@ -47740,10 +47737,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C174" s="10" t="b">
         <v>1</v>
@@ -47751,7 +47748,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B175" s="10" t="s">
         <v>133</v>
@@ -47762,10 +47759,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C176" s="10" t="b">
         <v>1</v>
@@ -47773,7 +47770,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>91</v>
@@ -47784,10 +47781,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C178" s="10" t="b">
         <v>1</v>
@@ -47795,10 +47792,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C179" s="10" t="b">
         <v>1</v>
